--- a/results_analysis/spark_motorFailure_02_hold_01_best.xlsx
+++ b/results_analysis/spark_motorFailure_02_hold_01_best.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\mltool_matlab_fp\results_analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\matlab-mltool-fp\results_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C8C8370-BF42-48ED-9CBF-A9605D958503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB304A38-7E3E-4EC9-A388-C89D446030C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="734" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="734" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="acc_mean" sheetId="1" r:id="rId1"/>
@@ -143,8 +143,16 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -519,7 +527,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -668,24 +676,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -705,6 +695,57 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -989,8 +1030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1008,19 +1049,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1071,13 +1112,13 @@
       <c r="D5" s="42">
         <v>0.59605263157894794</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="63">
         <v>0.93361842105263204</v>
       </c>
       <c r="F5" s="12">
         <v>0.79256578947368395</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="63">
         <v>0.93388157894736901</v>
       </c>
       <c r="H5" s="12">
@@ -1089,7 +1130,7 @@
       <c r="J5" s="12">
         <v>0.65690789473684197</v>
       </c>
-      <c r="K5" s="43">
+      <c r="K5" s="64">
         <v>0.93138157894736895</v>
       </c>
     </row>
@@ -1104,13 +1145,13 @@
       <c r="E6" s="13">
         <v>0.73947368421052595</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="65">
         <v>0.79631578947368398</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="65">
         <v>0.844342105263158</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="65">
         <v>0.97256578947368399</v>
       </c>
       <c r="I6" s="13">
@@ -1134,7 +1175,7 @@
       <c r="D7" s="44">
         <v>0.67697368421052595</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="65">
         <v>0.93546052631578902</v>
       </c>
       <c r="F7" s="13">
@@ -1146,13 +1187,13 @@
       <c r="H7" s="13">
         <v>0.90355263157894805</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7" s="65">
         <v>0.91177631578947405</v>
       </c>
       <c r="J7" s="13">
         <v>0.60776315789473701</v>
       </c>
-      <c r="K7" s="15">
+      <c r="K7" s="66">
         <v>0.91703947368421102</v>
       </c>
     </row>
@@ -1171,10 +1212,10 @@
       <c r="F8" s="14">
         <v>0.79249999999999998</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="67">
         <v>0.94552631578947399</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="67">
         <v>0.97427631578947305</v>
       </c>
       <c r="I8" s="14">
@@ -1183,7 +1224,7 @@
       <c r="J8" s="14">
         <v>0.63809210526315796</v>
       </c>
-      <c r="K8" s="46">
+      <c r="K8" s="68">
         <v>0.99546052631578896</v>
       </c>
     </row>
@@ -1197,10 +1238,10 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="47">
+      <c r="D9" s="70">
         <v>0.90881578947368502</v>
       </c>
-      <c r="E9" s="48">
+      <c r="E9" s="69">
         <v>0.936907894736842</v>
       </c>
       <c r="F9" s="48">
@@ -1212,7 +1253,7 @@
       <c r="H9" s="48">
         <v>0.89184210526315799</v>
       </c>
-      <c r="I9" s="48">
+      <c r="I9" s="69">
         <v>0.91789473684210598</v>
       </c>
       <c r="J9" s="48">
@@ -1233,16 +1274,16 @@
       <c r="E10" s="13">
         <v>0.70921052631578896</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="65">
         <v>0.88717105263157903</v>
       </c>
       <c r="G10" s="13">
         <v>0.88131578947368405</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="65">
         <v>0.98815789473684201</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="65">
         <v>0.92105263157894701</v>
       </c>
       <c r="J10" s="13">
@@ -1269,16 +1310,16 @@
       <c r="F11" s="13">
         <v>0.85144736842105295</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="65">
         <v>0.87276315789473702</v>
       </c>
       <c r="H11" s="13">
         <v>0.84789473684210503</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I11" s="65">
         <v>0.91855263157894695</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J11" s="65">
         <v>0.91355263157894695</v>
       </c>
       <c r="K11" s="15">
@@ -1291,7 +1332,7 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="45">
+      <c r="D12" s="71">
         <v>0.93164473684210503</v>
       </c>
       <c r="E12" s="14">
@@ -1300,10 +1341,10 @@
       <c r="F12" s="14">
         <v>0.924276315789474</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="67">
         <v>0.96302631578947295</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="67">
         <v>0.99671052631579005</v>
       </c>
       <c r="I12" s="14">
@@ -1326,28 +1367,28 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="47">
+      <c r="D13" s="70">
         <v>0.89348684210526297</v>
       </c>
-      <c r="E13" s="48">
+      <c r="E13" s="69">
         <v>0.89249999999999996</v>
       </c>
       <c r="F13" s="48">
         <v>0.87855263157894703</v>
       </c>
-      <c r="G13" s="48">
+      <c r="G13" s="69">
         <v>0.89394736842105305</v>
       </c>
       <c r="H13" s="48">
         <v>0.89026315789473698</v>
       </c>
-      <c r="I13" s="48">
+      <c r="I13" s="69">
         <v>0.89651315789473696</v>
       </c>
       <c r="J13" s="48">
         <v>0.87124999999999997</v>
       </c>
-      <c r="K13" s="49">
+      <c r="K13" s="72">
         <v>0.89269736842105296</v>
       </c>
     </row>
@@ -1359,13 +1400,13 @@
       <c r="D14" s="44">
         <v>0.89335526315789504</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="65">
         <v>0.99881578947368399</v>
       </c>
       <c r="F14" s="13">
         <v>0.89572368421052595</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G14" s="65">
         <v>0.99776315789473702</v>
       </c>
       <c r="H14" s="13">
@@ -1377,7 +1418,7 @@
       <c r="J14" s="13">
         <v>0.85973684210526302</v>
       </c>
-      <c r="K14" s="15">
+      <c r="K14" s="66">
         <v>0.99802631578947398</v>
       </c>
     </row>
@@ -1389,7 +1430,7 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="44">
+      <c r="D15" s="73">
         <v>0.89736842105263204</v>
       </c>
       <c r="E15" s="13">
@@ -1398,10 +1439,10 @@
       <c r="F15" s="13">
         <v>0.87782894736842099</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G15" s="65">
         <v>0.89328947368421097</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H15" s="65">
         <v>0.89453947368421105</v>
       </c>
       <c r="I15" s="13">
@@ -1423,13 +1464,13 @@
       <c r="D16" s="45">
         <v>0.893421052631579</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="67">
         <v>0.999605263157895</v>
       </c>
       <c r="F16" s="14">
         <v>0.89710526315789496</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="67">
         <v>0.99611842105263204</v>
       </c>
       <c r="H16" s="14">
@@ -1441,7 +1482,7 @@
       <c r="J16" s="14">
         <v>0.82743421052631605</v>
       </c>
-      <c r="K16" s="46">
+      <c r="K16" s="68">
         <v>0.99151315789473704</v>
       </c>
     </row>
@@ -1464,19 +1505,19 @@
       <c r="F17" s="48">
         <v>0.80236842105263195</v>
       </c>
-      <c r="G17" s="48">
+      <c r="G17" s="69">
         <v>0.93513157894736898</v>
       </c>
-      <c r="H17" s="48">
+      <c r="H17" s="69">
         <v>0.93427631578947401</v>
       </c>
-      <c r="I17" s="48">
+      <c r="I17" s="69">
         <v>0.93447368421052601</v>
       </c>
       <c r="J17" s="48">
         <v>0.64828947368420997</v>
       </c>
-      <c r="K17" s="49">
+      <c r="K17" s="72">
         <v>0.93500000000000005</v>
       </c>
     </row>
@@ -1497,16 +1538,16 @@
       <c r="G18" s="13">
         <v>0.91578947368421004</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H18" s="65">
         <v>0.96223684210526295</v>
       </c>
-      <c r="I18" s="13">
+      <c r="I18" s="65">
         <v>0.93276315789473696</v>
       </c>
       <c r="J18" s="13">
         <v>0.66427631578947399</v>
       </c>
-      <c r="K18" s="15">
+      <c r="K18" s="66">
         <v>0.97835526315789401</v>
       </c>
     </row>
@@ -1527,10 +1568,10 @@
       <c r="F19" s="13">
         <v>0.88875000000000004</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G19" s="65">
         <v>0.933289473684211</v>
       </c>
-      <c r="H19" s="13">
+      <c r="H19" s="65">
         <v>0.93526315789473702</v>
       </c>
       <c r="I19" s="13">
@@ -1539,7 +1580,7 @@
       <c r="J19" s="13">
         <v>0.70835526315789499</v>
       </c>
-      <c r="K19" s="15">
+      <c r="K19" s="66">
         <v>0.93578947368421095</v>
       </c>
     </row>
@@ -1558,10 +1599,10 @@
       <c r="F20" s="14">
         <v>0.75855263157894703</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G20" s="67">
         <v>0.94059210526315795</v>
       </c>
-      <c r="H20" s="14">
+      <c r="H20" s="67">
         <v>0.95802631578947295</v>
       </c>
       <c r="I20" s="14">
@@ -1570,7 +1611,7 @@
       <c r="J20" s="14">
         <v>0.73848684210526305</v>
       </c>
-      <c r="K20" s="46">
+      <c r="K20" s="68">
         <v>0.96440789473684196</v>
       </c>
     </row>
@@ -1940,61 +1981,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
     </row>
     <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D3" s="55" t="s">
+      <c r="D3" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="53"/>
-      <c r="F3" s="52" t="s">
+      <c r="E3" s="60"/>
+      <c r="F3" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="53"/>
-      <c r="H3" s="52" t="s">
+      <c r="G3" s="60"/>
+      <c r="H3" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="53"/>
-      <c r="J3" s="52" t="s">
+      <c r="I3" s="60"/>
+      <c r="J3" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="53"/>
-      <c r="L3" s="52" t="s">
+      <c r="K3" s="60"/>
+      <c r="L3" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="53"/>
-      <c r="N3" s="52" t="s">
+      <c r="M3" s="60"/>
+      <c r="N3" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="53"/>
-      <c r="P3" s="52" t="s">
+      <c r="O3" s="60"/>
+      <c r="P3" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="52" t="s">
+      <c r="Q3" s="60"/>
+      <c r="R3" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="54"/>
+      <c r="S3" s="61"/>
     </row>
     <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
@@ -2065,7 +2106,7 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="61">
+      <c r="D5" s="55">
         <v>0.25</v>
       </c>
       <c r="E5" s="27">
@@ -2077,7 +2118,7 @@
       <c r="G5" s="27">
         <v>1024.001</v>
       </c>
-      <c r="H5" s="62">
+      <c r="H5" s="56">
         <v>1</v>
       </c>
       <c r="I5" s="27">
@@ -2095,7 +2136,7 @@
       <c r="M5" s="27">
         <v>1024.001</v>
       </c>
-      <c r="N5" s="62">
+      <c r="N5" s="56">
         <v>-2</v>
       </c>
       <c r="O5" s="27">
@@ -3279,19 +3320,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -3882,19 +3923,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -4492,19 +4533,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5420,19 +5461,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6190,19 +6231,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7100,7 +7141,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7118,19 +7159,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7888,19 +7929,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8639,8 +8680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7F40056-F547-48DD-9331-37B657810592}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8658,19 +8699,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9428,19 +9469,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10200,24 +10241,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
     </row>
     <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10227,29 +10268,29 @@
       <c r="E3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="51" t="s">
+      <c r="F3" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
       <c r="I3" s="18" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="52" t="s">
+      <c r="K3" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="53"/>
-      <c r="M3" s="52" t="s">
+      <c r="L3" s="60"/>
+      <c r="M3" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="53"/>
-      <c r="O3" s="52" t="s">
+      <c r="N3" s="60"/>
+      <c r="O3" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="54"/>
+      <c r="P3" s="61"/>
     </row>
     <row r="4" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
@@ -10311,7 +10352,7 @@
       <c r="C5" s="21">
         <v>1</v>
       </c>
-      <c r="D5" s="56">
+      <c r="D5" s="50">
         <v>0</v>
       </c>
       <c r="E5" s="32">
@@ -10347,7 +10388,7 @@
       <c r="O5" s="33">
         <v>16</v>
       </c>
-      <c r="P5" s="59">
+      <c r="P5" s="53">
         <v>1</v>
       </c>
     </row>
@@ -10536,7 +10577,7 @@
       <c r="O9" s="13">
         <v>9.765625E-4</v>
       </c>
-      <c r="P9" s="60">
+      <c r="P9" s="54">
         <v>1</v>
       </c>
     </row>
@@ -10639,7 +10680,7 @@
       <c r="C12" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="57">
+      <c r="D12" s="51">
         <v>1</v>
       </c>
       <c r="E12" s="31">
@@ -10675,7 +10716,7 @@
       <c r="O12" s="29">
         <v>512</v>
       </c>
-      <c r="P12" s="60">
+      <c r="P12" s="54">
         <v>1</v>
       </c>
     </row>
@@ -11017,7 +11058,7 @@
       <c r="C20" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="58">
+      <c r="D20" s="52">
         <v>3.125E-2</v>
       </c>
       <c r="E20" s="38">

--- a/results_analysis/spark_motorFailure_02_hold_01_best.xlsx
+++ b/results_analysis/spark_motorFailure_02_hold_01_best.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\matlab-mltool-fp\results_analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\mltool_matlab_fp\results_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB304A38-7E3E-4EC9-A388-C89D446030C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1236F4F3-E4AD-4928-A14B-1DD5145863B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="734" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="734" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="acc_mean" sheetId="1" r:id="rId1"/>
@@ -697,24 +697,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -746,6 +728,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1030,8 +1030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1049,19 +1049,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1112,13 +1112,13 @@
       <c r="D5" s="42">
         <v>0.59605263157894794</v>
       </c>
-      <c r="E5" s="63">
+      <c r="E5" s="57">
         <v>0.93361842105263204</v>
       </c>
       <c r="F5" s="12">
         <v>0.79256578947368395</v>
       </c>
-      <c r="G5" s="63">
+      <c r="G5" s="57">
         <v>0.93388157894736901</v>
       </c>
       <c r="H5" s="12">
@@ -1130,7 +1130,7 @@
       <c r="J5" s="12">
         <v>0.65690789473684197</v>
       </c>
-      <c r="K5" s="64">
+      <c r="K5" s="58">
         <v>0.93138157894736895</v>
       </c>
     </row>
@@ -1145,13 +1145,13 @@
       <c r="E6" s="13">
         <v>0.73947368421052595</v>
       </c>
-      <c r="F6" s="65">
+      <c r="F6" s="59">
         <v>0.79631578947368398</v>
       </c>
-      <c r="G6" s="65">
+      <c r="G6" s="59">
         <v>0.844342105263158</v>
       </c>
-      <c r="H6" s="65">
+      <c r="H6" s="59">
         <v>0.97256578947368399</v>
       </c>
       <c r="I6" s="13">
@@ -1175,7 +1175,7 @@
       <c r="D7" s="44">
         <v>0.67697368421052595</v>
       </c>
-      <c r="E7" s="65">
+      <c r="E7" s="59">
         <v>0.93546052631578902</v>
       </c>
       <c r="F7" s="13">
@@ -1187,13 +1187,13 @@
       <c r="H7" s="13">
         <v>0.90355263157894805</v>
       </c>
-      <c r="I7" s="65">
+      <c r="I7" s="59">
         <v>0.91177631578947405</v>
       </c>
       <c r="J7" s="13">
         <v>0.60776315789473701</v>
       </c>
-      <c r="K7" s="66">
+      <c r="K7" s="60">
         <v>0.91703947368421102</v>
       </c>
     </row>
@@ -1212,10 +1212,10 @@
       <c r="F8" s="14">
         <v>0.79249999999999998</v>
       </c>
-      <c r="G8" s="67">
+      <c r="G8" s="61">
         <v>0.94552631578947399</v>
       </c>
-      <c r="H8" s="67">
+      <c r="H8" s="61">
         <v>0.97427631578947305</v>
       </c>
       <c r="I8" s="14">
@@ -1224,7 +1224,7 @@
       <c r="J8" s="14">
         <v>0.63809210526315796</v>
       </c>
-      <c r="K8" s="68">
+      <c r="K8" s="62">
         <v>0.99546052631578896</v>
       </c>
     </row>
@@ -1238,10 +1238,10 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="70">
+      <c r="D9" s="64">
         <v>0.90881578947368502</v>
       </c>
-      <c r="E9" s="69">
+      <c r="E9" s="63">
         <v>0.936907894736842</v>
       </c>
       <c r="F9" s="48">
@@ -1253,7 +1253,7 @@
       <c r="H9" s="48">
         <v>0.89184210526315799</v>
       </c>
-      <c r="I9" s="69">
+      <c r="I9" s="63">
         <v>0.91789473684210598</v>
       </c>
       <c r="J9" s="48">
@@ -1274,16 +1274,16 @@
       <c r="E10" s="13">
         <v>0.70921052631578896</v>
       </c>
-      <c r="F10" s="65">
+      <c r="F10" s="59">
         <v>0.88717105263157903</v>
       </c>
       <c r="G10" s="13">
         <v>0.88131578947368405</v>
       </c>
-      <c r="H10" s="65">
+      <c r="H10" s="59">
         <v>0.98815789473684201</v>
       </c>
-      <c r="I10" s="65">
+      <c r="I10" s="59">
         <v>0.92105263157894701</v>
       </c>
       <c r="J10" s="13">
@@ -1310,16 +1310,16 @@
       <c r="F11" s="13">
         <v>0.85144736842105295</v>
       </c>
-      <c r="G11" s="65">
+      <c r="G11" s="59">
         <v>0.87276315789473702</v>
       </c>
       <c r="H11" s="13">
         <v>0.84789473684210503</v>
       </c>
-      <c r="I11" s="65">
+      <c r="I11" s="59">
         <v>0.91855263157894695</v>
       </c>
-      <c r="J11" s="65">
+      <c r="J11" s="59">
         <v>0.91355263157894695</v>
       </c>
       <c r="K11" s="15">
@@ -1332,7 +1332,7 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="71">
+      <c r="D12" s="65">
         <v>0.93164473684210503</v>
       </c>
       <c r="E12" s="14">
@@ -1341,10 +1341,10 @@
       <c r="F12" s="14">
         <v>0.924276315789474</v>
       </c>
-      <c r="G12" s="67">
+      <c r="G12" s="61">
         <v>0.96302631578947295</v>
       </c>
-      <c r="H12" s="67">
+      <c r="H12" s="61">
         <v>0.99671052631579005</v>
       </c>
       <c r="I12" s="14">
@@ -1367,28 +1367,28 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="70">
+      <c r="D13" s="64">
         <v>0.89348684210526297</v>
       </c>
-      <c r="E13" s="69">
+      <c r="E13" s="63">
         <v>0.89249999999999996</v>
       </c>
       <c r="F13" s="48">
         <v>0.87855263157894703</v>
       </c>
-      <c r="G13" s="69">
+      <c r="G13" s="63">
         <v>0.89394736842105305</v>
       </c>
       <c r="H13" s="48">
         <v>0.89026315789473698</v>
       </c>
-      <c r="I13" s="69">
+      <c r="I13" s="63">
         <v>0.89651315789473696</v>
       </c>
       <c r="J13" s="48">
         <v>0.87124999999999997</v>
       </c>
-      <c r="K13" s="72">
+      <c r="K13" s="66">
         <v>0.89269736842105296</v>
       </c>
     </row>
@@ -1400,13 +1400,13 @@
       <c r="D14" s="44">
         <v>0.89335526315789504</v>
       </c>
-      <c r="E14" s="65">
+      <c r="E14" s="59">
         <v>0.99881578947368399</v>
       </c>
       <c r="F14" s="13">
         <v>0.89572368421052595</v>
       </c>
-      <c r="G14" s="65">
+      <c r="G14" s="59">
         <v>0.99776315789473702</v>
       </c>
       <c r="H14" s="13">
@@ -1418,7 +1418,7 @@
       <c r="J14" s="13">
         <v>0.85973684210526302</v>
       </c>
-      <c r="K14" s="66">
+      <c r="K14" s="60">
         <v>0.99802631578947398</v>
       </c>
     </row>
@@ -1430,7 +1430,7 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="73">
+      <c r="D15" s="67">
         <v>0.89736842105263204</v>
       </c>
       <c r="E15" s="13">
@@ -1439,10 +1439,10 @@
       <c r="F15" s="13">
         <v>0.87782894736842099</v>
       </c>
-      <c r="G15" s="65">
+      <c r="G15" s="59">
         <v>0.89328947368421097</v>
       </c>
-      <c r="H15" s="65">
+      <c r="H15" s="59">
         <v>0.89453947368421105</v>
       </c>
       <c r="I15" s="13">
@@ -1464,13 +1464,13 @@
       <c r="D16" s="45">
         <v>0.893421052631579</v>
       </c>
-      <c r="E16" s="67">
+      <c r="E16" s="61">
         <v>0.999605263157895</v>
       </c>
       <c r="F16" s="14">
         <v>0.89710526315789496</v>
       </c>
-      <c r="G16" s="67">
+      <c r="G16" s="61">
         <v>0.99611842105263204</v>
       </c>
       <c r="H16" s="14">
@@ -1482,7 +1482,7 @@
       <c r="J16" s="14">
         <v>0.82743421052631605</v>
       </c>
-      <c r="K16" s="68">
+      <c r="K16" s="62">
         <v>0.99151315789473704</v>
       </c>
     </row>
@@ -1505,19 +1505,19 @@
       <c r="F17" s="48">
         <v>0.80236842105263195</v>
       </c>
-      <c r="G17" s="69">
+      <c r="G17" s="63">
         <v>0.93513157894736898</v>
       </c>
-      <c r="H17" s="69">
+      <c r="H17" s="63">
         <v>0.93427631578947401</v>
       </c>
-      <c r="I17" s="69">
+      <c r="I17" s="63">
         <v>0.93447368421052601</v>
       </c>
       <c r="J17" s="48">
         <v>0.64828947368420997</v>
       </c>
-      <c r="K17" s="72">
+      <c r="K17" s="66">
         <v>0.93500000000000005</v>
       </c>
     </row>
@@ -1538,16 +1538,16 @@
       <c r="G18" s="13">
         <v>0.91578947368421004</v>
       </c>
-      <c r="H18" s="65">
+      <c r="H18" s="59">
         <v>0.96223684210526295</v>
       </c>
-      <c r="I18" s="65">
+      <c r="I18" s="59">
         <v>0.93276315789473696</v>
       </c>
       <c r="J18" s="13">
         <v>0.66427631578947399</v>
       </c>
-      <c r="K18" s="66">
+      <c r="K18" s="60">
         <v>0.97835526315789401</v>
       </c>
     </row>
@@ -1568,10 +1568,10 @@
       <c r="F19" s="13">
         <v>0.88875000000000004</v>
       </c>
-      <c r="G19" s="65">
+      <c r="G19" s="59">
         <v>0.933289473684211</v>
       </c>
-      <c r="H19" s="65">
+      <c r="H19" s="59">
         <v>0.93526315789473702</v>
       </c>
       <c r="I19" s="13">
@@ -1580,7 +1580,7 @@
       <c r="J19" s="13">
         <v>0.70835526315789499</v>
       </c>
-      <c r="K19" s="66">
+      <c r="K19" s="60">
         <v>0.93578947368421095</v>
       </c>
     </row>
@@ -1599,10 +1599,10 @@
       <c r="F20" s="14">
         <v>0.75855263157894703</v>
       </c>
-      <c r="G20" s="67">
+      <c r="G20" s="61">
         <v>0.94059210526315795</v>
       </c>
-      <c r="H20" s="67">
+      <c r="H20" s="61">
         <v>0.95802631578947295</v>
       </c>
       <c r="I20" s="14">
@@ -1611,7 +1611,7 @@
       <c r="J20" s="14">
         <v>0.73848684210526305</v>
       </c>
-      <c r="K20" s="68">
+      <c r="K20" s="62">
         <v>0.96440789473684196</v>
       </c>
     </row>
@@ -1981,61 +1981,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
     </row>
     <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D3" s="62" t="s">
+      <c r="D3" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="59" t="s">
+      <c r="E3" s="71"/>
+      <c r="F3" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="60"/>
-      <c r="H3" s="59" t="s">
+      <c r="G3" s="71"/>
+      <c r="H3" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="60"/>
-      <c r="J3" s="59" t="s">
+      <c r="I3" s="71"/>
+      <c r="J3" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="60"/>
-      <c r="L3" s="59" t="s">
+      <c r="K3" s="71"/>
+      <c r="L3" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="60"/>
-      <c r="N3" s="59" t="s">
+      <c r="M3" s="71"/>
+      <c r="N3" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="60"/>
-      <c r="P3" s="59" t="s">
+      <c r="O3" s="71"/>
+      <c r="P3" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="59" t="s">
+      <c r="Q3" s="71"/>
+      <c r="R3" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="61"/>
+      <c r="S3" s="72"/>
     </row>
     <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
@@ -3320,19 +3320,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -3923,19 +3923,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -4533,19 +4533,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5461,19 +5461,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6231,19 +6231,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7159,19 +7159,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7929,19 +7929,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8680,7 +8680,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7F40056-F547-48DD-9331-37B657810592}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -8699,19 +8699,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9469,19 +9469,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10241,24 +10241,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
     </row>
     <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10268,29 +10268,29 @@
       <c r="E3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="58" t="s">
+      <c r="F3" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
       <c r="I3" s="18" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="59" t="s">
+      <c r="K3" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="60"/>
-      <c r="M3" s="59" t="s">
+      <c r="L3" s="71"/>
+      <c r="M3" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="60"/>
-      <c r="O3" s="59" t="s">
+      <c r="N3" s="71"/>
+      <c r="O3" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="61"/>
+      <c r="P3" s="72"/>
     </row>
     <row r="4" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">

--- a/results_analysis/spark_motorFailure_02_hold_01_best.xlsx
+++ b/results_analysis/spark_motorFailure_02_hold_01_best.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\mltool_matlab_fp\results_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1236F4F3-E4AD-4928-A14B-1DD5145863B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FBA9A77-7838-45EF-AFC3-A3ED56A6F594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="734" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="32">
   <si>
     <t>Sparsiciation Method</t>
   </si>
@@ -527,7 +527,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -748,6 +748,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1030,8 +1067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1615,7 +1652,7 @@
         <v>0.96440789473684196</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
@@ -1625,96 +1662,292 @@
       <c r="J21" s="16"/>
       <c r="K21" s="16"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B22" s="11"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
+    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
+      <c r="A23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="74">
+        <v>0.624605263157895</v>
+      </c>
+      <c r="E23" s="75">
+        <v>0.93361842105263204</v>
+      </c>
+      <c r="F23" s="75">
+        <v>0.79631578947368398</v>
+      </c>
+      <c r="G23" s="75">
+        <v>0.93388157894736901</v>
+      </c>
+      <c r="H23" s="75">
+        <v>0.97256578947368399</v>
+      </c>
+      <c r="I23" s="75">
+        <v>0.86565789473684196</v>
+      </c>
+      <c r="J23" s="75">
+        <v>0.65690789473684197</v>
+      </c>
+      <c r="K23" s="76">
+        <v>0.93138157894736895</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="4"/>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="80">
+        <v>0.70256578947368398</v>
+      </c>
+      <c r="E24" s="81">
+        <v>0.93546052631578902</v>
+      </c>
+      <c r="F24" s="81">
+        <v>0.86427631578947395</v>
+      </c>
+      <c r="G24" s="81">
+        <v>0.94552631578947399</v>
+      </c>
+      <c r="H24" s="81">
+        <v>0.97427631578947305</v>
+      </c>
+      <c r="I24" s="81">
+        <v>0.91447368421052599</v>
+      </c>
+      <c r="J24" s="81">
+        <v>0.63809210526315796</v>
+      </c>
+      <c r="K24" s="82">
+        <v>0.99546052631578896</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
+      <c r="A25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="74">
+        <v>0.90881578947368502</v>
+      </c>
+      <c r="E25" s="75">
+        <v>0.936907894736842</v>
+      </c>
+      <c r="F25" s="75">
+        <v>0.88717105263157903</v>
+      </c>
+      <c r="G25" s="75">
+        <v>0.89598684210526303</v>
+      </c>
+      <c r="H25" s="75">
+        <v>0.98815789473684201</v>
+      </c>
+      <c r="I25" s="75">
+        <v>0.92105263157894701</v>
+      </c>
+      <c r="J25" s="75">
+        <v>0.90072368421052695</v>
+      </c>
+      <c r="K25" s="76">
+        <v>0.785855263157895</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="4"/>
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="80">
+        <v>0.93164473684210503</v>
+      </c>
+      <c r="E26" s="81">
+        <v>0.80677631578947395</v>
+      </c>
+      <c r="F26" s="81">
+        <v>0.924276315789474</v>
+      </c>
+      <c r="G26" s="81">
+        <v>0.96302631578947295</v>
+      </c>
+      <c r="H26" s="81">
+        <v>0.99671052631579005</v>
+      </c>
+      <c r="I26" s="81">
+        <v>0.92019736842105304</v>
+      </c>
+      <c r="J26" s="81">
+        <v>0.91355263157894695</v>
+      </c>
+      <c r="K26" s="82">
+        <v>0.86407894736842095</v>
+      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
+      <c r="A27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="74">
+        <v>0.89348684210526297</v>
+      </c>
+      <c r="E27" s="75">
+        <v>0.99881578947368399</v>
+      </c>
+      <c r="F27" s="75">
+        <v>0.89572368421052595</v>
+      </c>
+      <c r="G27" s="75">
+        <v>0.99776315789473702</v>
+      </c>
+      <c r="H27" s="75">
+        <v>0.90657894736842104</v>
+      </c>
+      <c r="I27" s="75">
+        <v>0.90282894736842101</v>
+      </c>
+      <c r="J27" s="75">
+        <v>0.87124999999999997</v>
+      </c>
+      <c r="K27" s="76">
+        <v>0.99802631578947398</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6">
+        <v>2</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="80">
+        <v>0.89736842105263204</v>
+      </c>
+      <c r="E28" s="81">
+        <v>0.999605263157895</v>
+      </c>
+      <c r="F28" s="81">
+        <v>0.89710526315789496</v>
+      </c>
+      <c r="G28" s="81">
+        <v>0.99611842105263204</v>
+      </c>
+      <c r="H28" s="81">
+        <v>0.91421052631579003</v>
+      </c>
+      <c r="I28" s="81">
+        <v>0.91328947368421098</v>
+      </c>
+      <c r="J28" s="81">
+        <v>0.89414473684210605</v>
+      </c>
+      <c r="K28" s="82">
+        <v>0.99151315789473704</v>
+      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
+      <c r="A29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="77">
+        <v>0.61848684210526295</v>
+      </c>
+      <c r="E29" s="78">
+        <v>0.92703947368421102</v>
+      </c>
+      <c r="F29" s="78">
+        <v>0.80236842105263195</v>
+      </c>
+      <c r="G29" s="78">
+        <v>0.93513157894736898</v>
+      </c>
+      <c r="H29" s="78">
+        <v>0.96223684210526295</v>
+      </c>
+      <c r="I29" s="78">
+        <v>0.93447368421052601</v>
+      </c>
+      <c r="J29" s="78">
+        <v>0.66427631578947399</v>
+      </c>
+      <c r="K29" s="79">
+        <v>0.97835526315789401</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6">
+        <v>2</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="80">
+        <v>0.66539473684210504</v>
+      </c>
+      <c r="E30" s="81">
+        <v>0.88276315789473703</v>
+      </c>
+      <c r="F30" s="81">
+        <v>0.88875000000000004</v>
+      </c>
+      <c r="G30" s="81">
+        <v>0.94059210526315795</v>
+      </c>
+      <c r="H30" s="81">
+        <v>0.95802631578947295</v>
+      </c>
+      <c r="I30" s="81">
+        <v>0.93164473684210503</v>
+      </c>
+      <c r="J30" s="81">
+        <v>0.73848684210526305</v>
+      </c>
+      <c r="K30" s="82">
+        <v>0.96440789473684196</v>
+      </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D31" s="16"/>
@@ -4514,8 +4747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{398B2DE7-58B9-465B-964F-6C8872188495}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5099,7 +5332,7 @@
         <v>1.6008771929824601E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
@@ -5109,96 +5342,292 @@
       <c r="J21" s="16"/>
       <c r="K21" s="16"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B22" s="11"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
+    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
+      <c r="A23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="16">
+        <v>6.52276650156043E-2</v>
+      </c>
+      <c r="E23" s="16">
+        <v>1.8350071150353399E-2</v>
+      </c>
+      <c r="F23" s="16">
+        <v>3.6801736066359302E-2</v>
+      </c>
+      <c r="G23" s="16">
+        <v>1.8873437154160101E-2</v>
+      </c>
+      <c r="H23" s="16">
+        <v>1.52524470200375E-2</v>
+      </c>
+      <c r="I23" s="16">
+        <v>0.144855142316451</v>
+      </c>
+      <c r="J23" s="16">
+        <v>9.37116645181474E-2</v>
+      </c>
+      <c r="K23" s="16">
+        <v>1.96203143435426E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="4"/>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="16">
+        <v>4.6738597041997398E-2</v>
+      </c>
+      <c r="E24" s="16">
+        <v>1.9829549237743702E-2</v>
+      </c>
+      <c r="F24" s="16">
+        <v>3.0668343064008601E-2</v>
+      </c>
+      <c r="G24" s="16">
+        <v>1.9096927310386199E-2</v>
+      </c>
+      <c r="H24" s="16">
+        <v>1.4060452309479599E-2</v>
+      </c>
+      <c r="I24" s="16">
+        <v>2.4077454830377602E-2</v>
+      </c>
+      <c r="J24" s="16">
+        <v>7.1020720333154097E-2</v>
+      </c>
+      <c r="K24" s="16">
+        <v>7.75026186275101E-3</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
+      <c r="A25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="16">
+        <v>2.4491884413775099E-2</v>
+      </c>
+      <c r="E25" s="16">
+        <v>1.8797303388482099E-2</v>
+      </c>
+      <c r="F25" s="16">
+        <v>3.1341241070080003E-2</v>
+      </c>
+      <c r="G25" s="16">
+        <v>2.5085805767913701E-2</v>
+      </c>
+      <c r="H25" s="16">
+        <v>1.3024308589362901E-2</v>
+      </c>
+      <c r="I25" s="16">
+        <v>2.23053964042235E-2</v>
+      </c>
+      <c r="J25" s="16">
+        <v>2.1325300120976699E-2</v>
+      </c>
+      <c r="K25" s="16">
+        <v>3.5129747058627502E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="4"/>
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="16">
+        <v>1.9320321395498899E-2</v>
+      </c>
+      <c r="E26" s="16">
+        <v>0.245016387754074</v>
+      </c>
+      <c r="F26" s="16">
+        <v>2.20985336646672E-2</v>
+      </c>
+      <c r="G26" s="16">
+        <v>1.86966735170827E-2</v>
+      </c>
+      <c r="H26" s="16">
+        <v>7.3331635397725402E-3</v>
+      </c>
+      <c r="I26" s="16">
+        <v>2.4467506065671499E-2</v>
+      </c>
+      <c r="J26" s="16">
+        <v>2.2848003290702999E-2</v>
+      </c>
+      <c r="K26" s="16">
+        <v>3.0418780233334601E-2</v>
+      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
+      <c r="A27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="21"/>
+      <c r="D27" s="16">
+        <v>3.0310433337723298E-2</v>
+      </c>
+      <c r="E27" s="16">
+        <v>6.76762926306969E-3</v>
+      </c>
+      <c r="F27" s="16">
+        <v>2.56660723892039E-2</v>
+      </c>
+      <c r="G27" s="16">
+        <v>7.0113110279196303E-3</v>
+      </c>
+      <c r="H27" s="16">
+        <v>2.7912109783679501E-2</v>
+      </c>
+      <c r="I27" s="16">
+        <v>2.6610770317616599E-2</v>
+      </c>
+      <c r="J27" s="16">
+        <v>2.9291711898844601E-2</v>
+      </c>
+      <c r="K27" s="16">
+        <v>5.2481844422201697E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6">
+        <v>2</v>
+      </c>
+      <c r="C28" s="23"/>
+      <c r="D28" s="16">
+        <v>2.5454403052688899E-2</v>
+      </c>
+      <c r="E28" s="16">
+        <v>3.94736842105263E-3</v>
+      </c>
+      <c r="F28" s="16">
+        <v>2.71904099210174E-2</v>
+      </c>
+      <c r="G28" s="16">
+        <v>8.4207515064449005E-3</v>
+      </c>
+      <c r="H28" s="16">
+        <v>3.08851890835386E-2</v>
+      </c>
+      <c r="I28" s="16">
+        <v>2.5632066908952401E-2</v>
+      </c>
+      <c r="J28" s="16">
+        <v>3.0200612042445899E-2</v>
+      </c>
+      <c r="K28" s="16">
+        <v>7.7276646519971598E-3</v>
+      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
+      <c r="A29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="21"/>
+      <c r="D29" s="16">
+        <v>6.6768990715003307E-2</v>
+      </c>
+      <c r="E29" s="16">
+        <v>1.99482519417911E-2</v>
+      </c>
+      <c r="F29" s="16">
+        <v>4.0457352066630897E-2</v>
+      </c>
+      <c r="G29" s="16">
+        <v>2.0593664644151001E-2</v>
+      </c>
+      <c r="H29" s="16">
+        <v>1.6847732147493001E-2</v>
+      </c>
+      <c r="I29" s="16">
+        <v>1.6328517955251101E-2</v>
+      </c>
+      <c r="J29" s="16">
+        <v>4.8358348424395799E-2</v>
+      </c>
+      <c r="K29" s="16">
+        <v>1.05915294503061E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6">
+        <v>2</v>
+      </c>
+      <c r="C30" s="23"/>
+      <c r="D30" s="16">
+        <v>5.5949542419063102E-2</v>
+      </c>
+      <c r="E30" s="16">
+        <v>3.0962382030168802E-2</v>
+      </c>
+      <c r="F30" s="16">
+        <v>2.8240595485692199E-2</v>
+      </c>
+      <c r="G30" s="16">
+        <v>2.4906702854007701E-2</v>
+      </c>
+      <c r="H30" s="16">
+        <v>1.9317718897678401E-2</v>
+      </c>
+      <c r="I30" s="16">
+        <v>1.9811903165449101E-2</v>
+      </c>
+      <c r="J30" s="16">
+        <v>6.5117346835920797E-2</v>
+      </c>
+      <c r="K30" s="16">
+        <v>1.6008771929824601E-2</v>
+      </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D31" s="16"/>
@@ -7140,8 +7569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D980D9F8-6B96-4F95-8395-B1BF7462FEB8}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7725,8 +8154,293 @@
         <v>146</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B22" s="11"/>
+    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23">
+        <v>7</v>
+      </c>
+      <c r="E23">
+        <v>223</v>
+      </c>
+      <c r="F23">
+        <v>102</v>
+      </c>
+      <c r="G23">
+        <v>212</v>
+      </c>
+      <c r="H23">
+        <v>226</v>
+      </c>
+      <c r="I23">
+        <v>281</v>
+      </c>
+      <c r="J23">
+        <v>26</v>
+      </c>
+      <c r="K23">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="4"/>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>21</v>
+      </c>
+      <c r="E24">
+        <v>221</v>
+      </c>
+      <c r="F24">
+        <v>98</v>
+      </c>
+      <c r="G24">
+        <v>218</v>
+      </c>
+      <c r="H24">
+        <v>220</v>
+      </c>
+      <c r="I24">
+        <v>281</v>
+      </c>
+      <c r="J24">
+        <v>9</v>
+      </c>
+      <c r="K24">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25">
+        <v>192</v>
+      </c>
+      <c r="E25">
+        <v>225</v>
+      </c>
+      <c r="F25">
+        <v>166</v>
+      </c>
+      <c r="G25">
+        <v>187</v>
+      </c>
+      <c r="H25">
+        <v>225</v>
+      </c>
+      <c r="I25">
+        <v>281</v>
+      </c>
+      <c r="J25">
+        <v>163</v>
+      </c>
+      <c r="K25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="4"/>
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>188</v>
+      </c>
+      <c r="E26">
+        <v>220</v>
+      </c>
+      <c r="F26">
+        <v>162</v>
+      </c>
+      <c r="G26">
+        <v>228</v>
+      </c>
+      <c r="H26">
+        <v>214</v>
+      </c>
+      <c r="I26">
+        <v>281</v>
+      </c>
+      <c r="J26">
+        <v>150</v>
+      </c>
+      <c r="K26">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="21"/>
+      <c r="D27">
+        <v>65</v>
+      </c>
+      <c r="E27">
+        <v>46</v>
+      </c>
+      <c r="F27">
+        <v>72</v>
+      </c>
+      <c r="G27">
+        <v>46</v>
+      </c>
+      <c r="H27">
+        <v>79</v>
+      </c>
+      <c r="I27">
+        <v>77</v>
+      </c>
+      <c r="J27">
+        <v>63</v>
+      </c>
+      <c r="K27">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6">
+        <v>2</v>
+      </c>
+      <c r="C28" s="23"/>
+      <c r="D28">
+        <v>80</v>
+      </c>
+      <c r="E28">
+        <v>44</v>
+      </c>
+      <c r="F28">
+        <v>69</v>
+      </c>
+      <c r="G28">
+        <v>47</v>
+      </c>
+      <c r="H28">
+        <v>79</v>
+      </c>
+      <c r="I28">
+        <v>71</v>
+      </c>
+      <c r="J28">
+        <v>67</v>
+      </c>
+      <c r="K28">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="21"/>
+      <c r="D29">
+        <v>7</v>
+      </c>
+      <c r="E29">
+        <v>225</v>
+      </c>
+      <c r="F29">
+        <v>91</v>
+      </c>
+      <c r="G29">
+        <v>230</v>
+      </c>
+      <c r="H29">
+        <v>113</v>
+      </c>
+      <c r="I29">
+        <v>226</v>
+      </c>
+      <c r="J29">
+        <v>14</v>
+      </c>
+      <c r="K29">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6">
+        <v>2</v>
+      </c>
+      <c r="C30" s="23"/>
+      <c r="D30">
+        <v>14</v>
+      </c>
+      <c r="E30">
+        <v>190</v>
+      </c>
+      <c r="F30">
+        <v>140</v>
+      </c>
+      <c r="G30">
+        <v>135</v>
+      </c>
+      <c r="H30">
+        <v>146</v>
+      </c>
+      <c r="I30">
+        <v>242</v>
+      </c>
+      <c r="J30">
+        <v>38</v>
+      </c>
+      <c r="K30">
+        <v>146</v>
+      </c>
     </row>
     <row r="37" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
@@ -7910,8 +8624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D696DEA4-1C6D-43BD-8BC6-2C617DFECF13}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8495,8 +9209,293 @@
         <v>141.24</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B22" s="11"/>
+    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23">
+        <v>7</v>
+      </c>
+      <c r="E23">
+        <v>217.16</v>
+      </c>
+      <c r="F23">
+        <v>95.23</v>
+      </c>
+      <c r="G23">
+        <v>217.62</v>
+      </c>
+      <c r="H23">
+        <v>215.45</v>
+      </c>
+      <c r="I23">
+        <v>241.91</v>
+      </c>
+      <c r="J23">
+        <v>20.010000000000002</v>
+      </c>
+      <c r="K23">
+        <v>216.96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="4"/>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>21.29</v>
+      </c>
+      <c r="E24">
+        <v>216.68</v>
+      </c>
+      <c r="F24">
+        <v>98.77</v>
+      </c>
+      <c r="G24">
+        <v>215.84</v>
+      </c>
+      <c r="H24">
+        <v>217.18</v>
+      </c>
+      <c r="I24">
+        <v>281</v>
+      </c>
+      <c r="J24">
+        <v>9.8800000000000008</v>
+      </c>
+      <c r="K24">
+        <v>217.33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25">
+        <v>176.45</v>
+      </c>
+      <c r="E25">
+        <v>216.82</v>
+      </c>
+      <c r="F25">
+        <v>156.43</v>
+      </c>
+      <c r="G25">
+        <v>184.88</v>
+      </c>
+      <c r="H25">
+        <v>222.23</v>
+      </c>
+      <c r="I25">
+        <v>281</v>
+      </c>
+      <c r="J25">
+        <v>169.04</v>
+      </c>
+      <c r="K25">
+        <v>107.23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="4"/>
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>191.35</v>
+      </c>
+      <c r="E26">
+        <v>216.69</v>
+      </c>
+      <c r="F26">
+        <v>155.52000000000001</v>
+      </c>
+      <c r="G26">
+        <v>217.23</v>
+      </c>
+      <c r="H26">
+        <v>217.56</v>
+      </c>
+      <c r="I26">
+        <v>281</v>
+      </c>
+      <c r="J26">
+        <v>134.22</v>
+      </c>
+      <c r="K26">
+        <v>131.02000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="21"/>
+      <c r="D27">
+        <v>69.52</v>
+      </c>
+      <c r="E27">
+        <v>45.97</v>
+      </c>
+      <c r="F27">
+        <v>69.38</v>
+      </c>
+      <c r="G27">
+        <v>44.5</v>
+      </c>
+      <c r="H27">
+        <v>67.17</v>
+      </c>
+      <c r="I27">
+        <v>70.459999999999994</v>
+      </c>
+      <c r="J27">
+        <v>67</v>
+      </c>
+      <c r="K27">
+        <v>47.02</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6">
+        <v>2</v>
+      </c>
+      <c r="C28" s="23"/>
+      <c r="D28">
+        <v>70.56</v>
+      </c>
+      <c r="E28">
+        <v>43.99</v>
+      </c>
+      <c r="F28">
+        <v>69.3</v>
+      </c>
+      <c r="G28">
+        <v>45.57</v>
+      </c>
+      <c r="H28">
+        <v>71.56</v>
+      </c>
+      <c r="I28">
+        <v>68.5</v>
+      </c>
+      <c r="J28">
+        <v>70.16</v>
+      </c>
+      <c r="K28">
+        <v>48.82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="21"/>
+      <c r="D29">
+        <v>7.11</v>
+      </c>
+      <c r="E29">
+        <v>223.52</v>
+      </c>
+      <c r="F29">
+        <v>88.56</v>
+      </c>
+      <c r="G29">
+        <v>220.72</v>
+      </c>
+      <c r="H29">
+        <v>111.77</v>
+      </c>
+      <c r="I29">
+        <v>217.56</v>
+      </c>
+      <c r="J29">
+        <v>16.16</v>
+      </c>
+      <c r="K29">
+        <v>176.81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6">
+        <v>2</v>
+      </c>
+      <c r="C30" s="23"/>
+      <c r="D30">
+        <v>14.2</v>
+      </c>
+      <c r="E30">
+        <v>181.12</v>
+      </c>
+      <c r="F30">
+        <v>137.88999999999999</v>
+      </c>
+      <c r="G30">
+        <v>119.47</v>
+      </c>
+      <c r="H30">
+        <v>137.35</v>
+      </c>
+      <c r="I30">
+        <v>236.32</v>
+      </c>
+      <c r="J30">
+        <v>33.159999999999997</v>
+      </c>
+      <c r="K30">
+        <v>141.24</v>
+      </c>
     </row>
     <row r="37" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
@@ -8680,8 +9679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7F40056-F547-48DD-9331-37B657810592}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9265,8 +10264,293 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B22" s="11"/>
+    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="92">
+        <v>2</v>
+      </c>
+      <c r="E23" s="92">
+        <v>1</v>
+      </c>
+      <c r="F23" s="92">
+        <v>4</v>
+      </c>
+      <c r="G23" s="92">
+        <v>1</v>
+      </c>
+      <c r="H23" s="92">
+        <v>8</v>
+      </c>
+      <c r="I23" s="92">
+        <v>1</v>
+      </c>
+      <c r="J23" s="92">
+        <v>1</v>
+      </c>
+      <c r="K23" s="92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="4"/>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="92">
+        <v>2</v>
+      </c>
+      <c r="E24" s="92">
+        <v>1</v>
+      </c>
+      <c r="F24" s="92">
+        <v>1</v>
+      </c>
+      <c r="G24" s="92">
+        <v>3</v>
+      </c>
+      <c r="H24" s="92">
+        <v>6</v>
+      </c>
+      <c r="I24" s="92">
+        <v>2</v>
+      </c>
+      <c r="J24" s="92">
+        <v>4</v>
+      </c>
+      <c r="K24" s="92">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="92">
+        <v>1</v>
+      </c>
+      <c r="E25" s="92">
+        <v>1</v>
+      </c>
+      <c r="F25" s="92">
+        <v>2</v>
+      </c>
+      <c r="G25" s="92">
+        <v>1</v>
+      </c>
+      <c r="H25" s="92">
+        <v>10</v>
+      </c>
+      <c r="I25" s="92">
+        <v>2</v>
+      </c>
+      <c r="J25" s="92">
+        <v>1</v>
+      </c>
+      <c r="K25" s="92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="4"/>
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="92">
+        <v>2</v>
+      </c>
+      <c r="E26" s="92">
+        <v>5</v>
+      </c>
+      <c r="F26" s="92">
+        <v>2</v>
+      </c>
+      <c r="G26" s="92">
+        <v>10</v>
+      </c>
+      <c r="H26" s="92">
+        <v>10</v>
+      </c>
+      <c r="I26" s="92">
+        <v>2</v>
+      </c>
+      <c r="J26" s="92">
+        <v>1</v>
+      </c>
+      <c r="K26" s="92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="21"/>
+      <c r="D27" s="92">
+        <v>1</v>
+      </c>
+      <c r="E27" s="92">
+        <v>7</v>
+      </c>
+      <c r="F27" s="92">
+        <v>2</v>
+      </c>
+      <c r="G27" s="92">
+        <v>3</v>
+      </c>
+      <c r="H27" s="92">
+        <v>7</v>
+      </c>
+      <c r="I27" s="92">
+        <v>3</v>
+      </c>
+      <c r="J27" s="92">
+        <v>1</v>
+      </c>
+      <c r="K27" s="92">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6">
+        <v>2</v>
+      </c>
+      <c r="C28" s="23"/>
+      <c r="D28" s="92">
+        <v>1</v>
+      </c>
+      <c r="E28" s="92">
+        <v>3</v>
+      </c>
+      <c r="F28" s="92">
+        <v>2</v>
+      </c>
+      <c r="G28" s="92">
+        <v>5</v>
+      </c>
+      <c r="H28" s="92">
+        <v>8</v>
+      </c>
+      <c r="I28" s="92">
+        <v>7</v>
+      </c>
+      <c r="J28" s="92">
+        <v>1</v>
+      </c>
+      <c r="K28" s="92">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="21"/>
+      <c r="D29" s="92">
+        <v>1</v>
+      </c>
+      <c r="E29" s="92">
+        <v>1</v>
+      </c>
+      <c r="F29" s="92">
+        <v>1</v>
+      </c>
+      <c r="G29" s="92">
+        <v>1</v>
+      </c>
+      <c r="H29" s="92">
+        <v>7</v>
+      </c>
+      <c r="I29" s="92">
+        <v>1</v>
+      </c>
+      <c r="J29" s="92">
+        <v>2</v>
+      </c>
+      <c r="K29" s="92">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6">
+        <v>2</v>
+      </c>
+      <c r="C30" s="23"/>
+      <c r="D30" s="92">
+        <v>1</v>
+      </c>
+      <c r="E30" s="92">
+        <v>1</v>
+      </c>
+      <c r="F30" s="92">
+        <v>1</v>
+      </c>
+      <c r="G30" s="92">
+        <v>9</v>
+      </c>
+      <c r="H30" s="92">
+        <v>7</v>
+      </c>
+      <c r="I30" s="92">
+        <v>1</v>
+      </c>
+      <c r="J30" s="92">
+        <v>2</v>
+      </c>
+      <c r="K30" s="92">
+        <v>7</v>
+      </c>
     </row>
     <row r="37" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
@@ -9450,8 +10734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE5843C1-20CB-4050-94D7-D7DDEA36873C}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10035,8 +11319,293 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B22" s="11"/>
+    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="83">
+        <v>2</v>
+      </c>
+      <c r="E23" s="84">
+        <v>1</v>
+      </c>
+      <c r="F23" s="84">
+        <v>4</v>
+      </c>
+      <c r="G23" s="84">
+        <v>1</v>
+      </c>
+      <c r="H23" s="84">
+        <v>8</v>
+      </c>
+      <c r="I23" s="84">
+        <v>1</v>
+      </c>
+      <c r="J23" s="84">
+        <v>1</v>
+      </c>
+      <c r="K23" s="85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="4"/>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="86">
+        <v>2</v>
+      </c>
+      <c r="E24" s="87">
+        <v>1</v>
+      </c>
+      <c r="F24" s="87">
+        <v>1</v>
+      </c>
+      <c r="G24" s="87">
+        <v>3</v>
+      </c>
+      <c r="H24" s="87">
+        <v>6</v>
+      </c>
+      <c r="I24" s="87">
+        <v>2</v>
+      </c>
+      <c r="J24" s="87">
+        <v>4</v>
+      </c>
+      <c r="K24" s="88">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="86">
+        <v>1</v>
+      </c>
+      <c r="E25" s="87">
+        <v>1</v>
+      </c>
+      <c r="F25" s="87">
+        <v>2</v>
+      </c>
+      <c r="G25" s="87">
+        <v>1</v>
+      </c>
+      <c r="H25" s="87">
+        <v>10</v>
+      </c>
+      <c r="I25" s="87">
+        <v>2</v>
+      </c>
+      <c r="J25" s="87">
+        <v>1</v>
+      </c>
+      <c r="K25" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="4"/>
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="86">
+        <v>2</v>
+      </c>
+      <c r="E26" s="87">
+        <v>5</v>
+      </c>
+      <c r="F26" s="87">
+        <v>2</v>
+      </c>
+      <c r="G26" s="87">
+        <v>10</v>
+      </c>
+      <c r="H26" s="87">
+        <v>10</v>
+      </c>
+      <c r="I26" s="87">
+        <v>2</v>
+      </c>
+      <c r="J26" s="87">
+        <v>1</v>
+      </c>
+      <c r="K26" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="86">
+        <v>1</v>
+      </c>
+      <c r="E27" s="87">
+        <v>7</v>
+      </c>
+      <c r="F27" s="87">
+        <v>2</v>
+      </c>
+      <c r="G27" s="87">
+        <v>3</v>
+      </c>
+      <c r="H27" s="87">
+        <v>7</v>
+      </c>
+      <c r="I27" s="87">
+        <v>3</v>
+      </c>
+      <c r="J27" s="87">
+        <v>1</v>
+      </c>
+      <c r="K27" s="88">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6">
+        <v>2</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="86">
+        <v>1</v>
+      </c>
+      <c r="E28" s="87">
+        <v>3</v>
+      </c>
+      <c r="F28" s="87">
+        <v>2</v>
+      </c>
+      <c r="G28" s="87">
+        <v>5</v>
+      </c>
+      <c r="H28" s="87">
+        <v>8</v>
+      </c>
+      <c r="I28" s="87">
+        <v>7</v>
+      </c>
+      <c r="J28" s="87">
+        <v>1</v>
+      </c>
+      <c r="K28" s="88">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="86">
+        <v>1</v>
+      </c>
+      <c r="E29" s="87">
+        <v>1</v>
+      </c>
+      <c r="F29" s="87">
+        <v>1</v>
+      </c>
+      <c r="G29" s="87">
+        <v>1</v>
+      </c>
+      <c r="H29" s="87">
+        <v>7</v>
+      </c>
+      <c r="I29" s="87">
+        <v>1</v>
+      </c>
+      <c r="J29" s="87">
+        <v>2</v>
+      </c>
+      <c r="K29" s="88">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6">
+        <v>2</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="89">
+        <v>1</v>
+      </c>
+      <c r="E30" s="90">
+        <v>1</v>
+      </c>
+      <c r="F30" s="90">
+        <v>1</v>
+      </c>
+      <c r="G30" s="90">
+        <v>9</v>
+      </c>
+      <c r="H30" s="90">
+        <v>7</v>
+      </c>
+      <c r="I30" s="90">
+        <v>1</v>
+      </c>
+      <c r="J30" s="90">
+        <v>2</v>
+      </c>
+      <c r="K30" s="91">
+        <v>7</v>
+      </c>
     </row>
     <row r="37" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>

--- a/results_analysis/spark_motorFailure_02_hold_01_best.xlsx
+++ b/results_analysis/spark_motorFailure_02_hold_01_best.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\mltool_matlab_fp\results_analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\matlab-mltool-fp\results_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FBA9A77-7838-45EF-AFC3-A3ED56A6F594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EBD3517-1633-481A-944F-080D66D7D322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="734" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="734" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="acc_mean" sheetId="1" r:id="rId1"/>
@@ -527,7 +527,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -730,6 +730,39 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -748,43 +781,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1067,8 +1084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1086,19 +1103,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1703,28 +1720,28 @@
         <v>1</v>
       </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="74">
+      <c r="D23" s="68">
         <v>0.624605263157895</v>
       </c>
-      <c r="E23" s="75">
+      <c r="E23" s="69">
         <v>0.93361842105263204</v>
       </c>
-      <c r="F23" s="75">
+      <c r="F23" s="69">
         <v>0.79631578947368398</v>
       </c>
-      <c r="G23" s="75">
+      <c r="G23" s="69">
         <v>0.93388157894736901</v>
       </c>
-      <c r="H23" s="75">
+      <c r="H23" s="69">
         <v>0.97256578947368399</v>
       </c>
-      <c r="I23" s="75">
+      <c r="I23" s="69">
         <v>0.86565789473684196</v>
       </c>
-      <c r="J23" s="75">
+      <c r="J23" s="69">
         <v>0.65690789473684197</v>
       </c>
-      <c r="K23" s="76">
+      <c r="K23" s="70">
         <v>0.93138157894736895</v>
       </c>
     </row>
@@ -1733,28 +1750,28 @@
       <c r="B24" s="1">
         <v>2</v>
       </c>
-      <c r="D24" s="80">
+      <c r="D24" s="73">
         <v>0.70256578947368398</v>
       </c>
-      <c r="E24" s="81">
+      <c r="E24" s="74">
         <v>0.93546052631578902</v>
       </c>
-      <c r="F24" s="81">
+      <c r="F24" s="74">
         <v>0.86427631578947395</v>
       </c>
-      <c r="G24" s="81">
+      <c r="G24" s="74">
         <v>0.94552631578947399</v>
       </c>
-      <c r="H24" s="81">
+      <c r="H24" s="74">
         <v>0.97427631578947305</v>
       </c>
-      <c r="I24" s="81">
+      <c r="I24" s="74">
         <v>0.91447368421052599</v>
       </c>
-      <c r="J24" s="81">
+      <c r="J24" s="74">
         <v>0.63809210526315796</v>
       </c>
-      <c r="K24" s="82">
+      <c r="K24" s="75">
         <v>0.99546052631578896</v>
       </c>
     </row>
@@ -1766,28 +1783,28 @@
         <v>1</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="74">
+      <c r="D25" s="68">
         <v>0.90881578947368502</v>
       </c>
-      <c r="E25" s="75">
+      <c r="E25" s="69">
         <v>0.936907894736842</v>
       </c>
-      <c r="F25" s="75">
+      <c r="F25" s="69">
         <v>0.88717105263157903</v>
       </c>
-      <c r="G25" s="75">
+      <c r="G25" s="69">
         <v>0.89598684210526303</v>
       </c>
-      <c r="H25" s="75">
+      <c r="H25" s="69">
         <v>0.98815789473684201</v>
       </c>
-      <c r="I25" s="75">
+      <c r="I25" s="69">
         <v>0.92105263157894701</v>
       </c>
-      <c r="J25" s="75">
+      <c r="J25" s="69">
         <v>0.90072368421052695</v>
       </c>
-      <c r="K25" s="76">
+      <c r="K25" s="70">
         <v>0.785855263157895</v>
       </c>
     </row>
@@ -1796,28 +1813,28 @@
       <c r="B26" s="1">
         <v>2</v>
       </c>
-      <c r="D26" s="80">
+      <c r="D26" s="73">
         <v>0.93164473684210503</v>
       </c>
-      <c r="E26" s="81">
+      <c r="E26" s="74">
         <v>0.80677631578947395</v>
       </c>
-      <c r="F26" s="81">
+      <c r="F26" s="74">
         <v>0.924276315789474</v>
       </c>
-      <c r="G26" s="81">
+      <c r="G26" s="74">
         <v>0.96302631578947295</v>
       </c>
-      <c r="H26" s="81">
+      <c r="H26" s="74">
         <v>0.99671052631579005</v>
       </c>
-      <c r="I26" s="81">
+      <c r="I26" s="74">
         <v>0.92019736842105304</v>
       </c>
-      <c r="J26" s="81">
+      <c r="J26" s="74">
         <v>0.91355263157894695</v>
       </c>
-      <c r="K26" s="82">
+      <c r="K26" s="75">
         <v>0.86407894736842095</v>
       </c>
     </row>
@@ -1829,28 +1846,28 @@
         <v>1</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="74">
+      <c r="D27" s="68">
         <v>0.89348684210526297</v>
       </c>
-      <c r="E27" s="75">
+      <c r="E27" s="69">
         <v>0.99881578947368399</v>
       </c>
-      <c r="F27" s="75">
+      <c r="F27" s="69">
         <v>0.89572368421052595</v>
       </c>
-      <c r="G27" s="75">
+      <c r="G27" s="69">
         <v>0.99776315789473702</v>
       </c>
-      <c r="H27" s="75">
+      <c r="H27" s="69">
         <v>0.90657894736842104</v>
       </c>
-      <c r="I27" s="75">
+      <c r="I27" s="69">
         <v>0.90282894736842101</v>
       </c>
-      <c r="J27" s="75">
+      <c r="J27" s="69">
         <v>0.87124999999999997</v>
       </c>
-      <c r="K27" s="76">
+      <c r="K27" s="70">
         <v>0.99802631578947398</v>
       </c>
     </row>
@@ -1860,28 +1877,28 @@
         <v>2</v>
       </c>
       <c r="C28" s="6"/>
-      <c r="D28" s="80">
+      <c r="D28" s="73">
         <v>0.89736842105263204</v>
       </c>
-      <c r="E28" s="81">
+      <c r="E28" s="74">
         <v>0.999605263157895</v>
       </c>
-      <c r="F28" s="81">
+      <c r="F28" s="74">
         <v>0.89710526315789496</v>
       </c>
-      <c r="G28" s="81">
+      <c r="G28" s="74">
         <v>0.99611842105263204</v>
       </c>
-      <c r="H28" s="81">
+      <c r="H28" s="74">
         <v>0.91421052631579003</v>
       </c>
-      <c r="I28" s="81">
+      <c r="I28" s="74">
         <v>0.91328947368421098</v>
       </c>
-      <c r="J28" s="81">
+      <c r="J28" s="74">
         <v>0.89414473684210605</v>
       </c>
-      <c r="K28" s="82">
+      <c r="K28" s="75">
         <v>0.99151315789473704</v>
       </c>
     </row>
@@ -1893,28 +1910,28 @@
         <v>1</v>
       </c>
       <c r="C29" s="3"/>
-      <c r="D29" s="77">
+      <c r="D29" s="71">
         <v>0.61848684210526295</v>
       </c>
-      <c r="E29" s="78">
+      <c r="E29" s="16">
         <v>0.92703947368421102</v>
       </c>
-      <c r="F29" s="78">
+      <c r="F29" s="16">
         <v>0.80236842105263195</v>
       </c>
-      <c r="G29" s="78">
+      <c r="G29" s="16">
         <v>0.93513157894736898</v>
       </c>
-      <c r="H29" s="78">
+      <c r="H29" s="16">
         <v>0.96223684210526295</v>
       </c>
-      <c r="I29" s="78">
+      <c r="I29" s="16">
         <v>0.93447368421052601</v>
       </c>
-      <c r="J29" s="78">
+      <c r="J29" s="16">
         <v>0.66427631578947399</v>
       </c>
-      <c r="K29" s="79">
+      <c r="K29" s="72">
         <v>0.97835526315789401</v>
       </c>
     </row>
@@ -1924,28 +1941,28 @@
         <v>2</v>
       </c>
       <c r="C30" s="6"/>
-      <c r="D30" s="80">
+      <c r="D30" s="73">
         <v>0.66539473684210504</v>
       </c>
-      <c r="E30" s="81">
+      <c r="E30" s="74">
         <v>0.88276315789473703</v>
       </c>
-      <c r="F30" s="81">
+      <c r="F30" s="74">
         <v>0.88875000000000004</v>
       </c>
-      <c r="G30" s="81">
+      <c r="G30" s="74">
         <v>0.94059210526315795</v>
       </c>
-      <c r="H30" s="81">
+      <c r="H30" s="74">
         <v>0.95802631578947295</v>
       </c>
-      <c r="I30" s="81">
+      <c r="I30" s="74">
         <v>0.93164473684210503</v>
       </c>
-      <c r="J30" s="81">
+      <c r="J30" s="74">
         <v>0.73848684210526305</v>
       </c>
-      <c r="K30" s="82">
+      <c r="K30" s="75">
         <v>0.96440789473684196</v>
       </c>
     </row>
@@ -2192,7 +2209,7 @@
   <dimension ref="A1:S53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2214,61 +2231,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
     </row>
     <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D3" s="73" t="s">
+      <c r="D3" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="71"/>
-      <c r="F3" s="70" t="s">
+      <c r="E3" s="88"/>
+      <c r="F3" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="71"/>
-      <c r="H3" s="70" t="s">
+      <c r="G3" s="88"/>
+      <c r="H3" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="71"/>
-      <c r="J3" s="70" t="s">
+      <c r="I3" s="88"/>
+      <c r="J3" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="71"/>
-      <c r="L3" s="70" t="s">
+      <c r="K3" s="88"/>
+      <c r="L3" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="71"/>
-      <c r="N3" s="70" t="s">
+      <c r="M3" s="88"/>
+      <c r="N3" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="71"/>
-      <c r="P3" s="70" t="s">
+      <c r="O3" s="88"/>
+      <c r="P3" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="71"/>
-      <c r="R3" s="70" t="s">
+      <c r="Q3" s="88"/>
+      <c r="R3" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="72"/>
+      <c r="S3" s="89"/>
     </row>
     <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
@@ -3542,7 +3559,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3553,19 +3570,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -4145,7 +4162,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4156,19 +4173,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -4747,8 +4764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{398B2DE7-58B9-465B-964F-6C8872188495}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4766,19 +4783,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5383,28 +5400,28 @@
         <v>1</v>
       </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="16">
+      <c r="D23" s="68">
         <v>6.52276650156043E-2</v>
       </c>
-      <c r="E23" s="16">
+      <c r="E23" s="69">
         <v>1.8350071150353399E-2</v>
       </c>
-      <c r="F23" s="16">
+      <c r="F23" s="69">
         <v>3.6801736066359302E-2</v>
       </c>
-      <c r="G23" s="16">
+      <c r="G23" s="69">
         <v>1.8873437154160101E-2</v>
       </c>
-      <c r="H23" s="16">
+      <c r="H23" s="69">
         <v>1.52524470200375E-2</v>
       </c>
-      <c r="I23" s="16">
+      <c r="I23" s="69">
         <v>0.144855142316451</v>
       </c>
-      <c r="J23" s="16">
+      <c r="J23" s="69">
         <v>9.37116645181474E-2</v>
       </c>
-      <c r="K23" s="16">
+      <c r="K23" s="70">
         <v>1.96203143435426E-2</v>
       </c>
     </row>
@@ -5413,28 +5430,28 @@
       <c r="B24" s="1">
         <v>2</v>
       </c>
-      <c r="D24" s="16">
+      <c r="D24" s="71">
         <v>4.6738597041997398E-2</v>
       </c>
-      <c r="E24" s="16">
+      <c r="E24" s="109">
         <v>1.9829549237743702E-2</v>
       </c>
-      <c r="F24" s="16">
+      <c r="F24" s="109">
         <v>3.0668343064008601E-2</v>
       </c>
-      <c r="G24" s="16">
+      <c r="G24" s="109">
         <v>1.9096927310386199E-2</v>
       </c>
-      <c r="H24" s="16">
+      <c r="H24" s="109">
         <v>1.4060452309479599E-2</v>
       </c>
-      <c r="I24" s="16">
+      <c r="I24" s="109">
         <v>2.4077454830377602E-2</v>
       </c>
-      <c r="J24" s="16">
+      <c r="J24" s="109">
         <v>7.1020720333154097E-2</v>
       </c>
-      <c r="K24" s="16">
+      <c r="K24" s="72">
         <v>7.75026186275101E-3</v>
       </c>
     </row>
@@ -5446,28 +5463,28 @@
         <v>1</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="16">
+      <c r="D25" s="71">
         <v>2.4491884413775099E-2</v>
       </c>
-      <c r="E25" s="16">
+      <c r="E25" s="109">
         <v>1.8797303388482099E-2</v>
       </c>
-      <c r="F25" s="16">
+      <c r="F25" s="109">
         <v>3.1341241070080003E-2</v>
       </c>
-      <c r="G25" s="16">
+      <c r="G25" s="109">
         <v>2.5085805767913701E-2</v>
       </c>
-      <c r="H25" s="16">
+      <c r="H25" s="109">
         <v>1.3024308589362901E-2</v>
       </c>
-      <c r="I25" s="16">
+      <c r="I25" s="109">
         <v>2.23053964042235E-2</v>
       </c>
-      <c r="J25" s="16">
+      <c r="J25" s="109">
         <v>2.1325300120976699E-2</v>
       </c>
-      <c r="K25" s="16">
+      <c r="K25" s="72">
         <v>3.5129747058627502E-2</v>
       </c>
     </row>
@@ -5476,28 +5493,28 @@
       <c r="B26" s="1">
         <v>2</v>
       </c>
-      <c r="D26" s="16">
+      <c r="D26" s="71">
         <v>1.9320321395498899E-2</v>
       </c>
-      <c r="E26" s="16">
+      <c r="E26" s="109">
         <v>0.245016387754074</v>
       </c>
-      <c r="F26" s="16">
+      <c r="F26" s="109">
         <v>2.20985336646672E-2</v>
       </c>
-      <c r="G26" s="16">
+      <c r="G26" s="109">
         <v>1.86966735170827E-2</v>
       </c>
-      <c r="H26" s="16">
+      <c r="H26" s="109">
         <v>7.3331635397725402E-3</v>
       </c>
-      <c r="I26" s="16">
+      <c r="I26" s="109">
         <v>2.4467506065671499E-2</v>
       </c>
-      <c r="J26" s="16">
+      <c r="J26" s="109">
         <v>2.2848003290702999E-2</v>
       </c>
-      <c r="K26" s="16">
+      <c r="K26" s="72">
         <v>3.0418780233334601E-2</v>
       </c>
     </row>
@@ -5508,29 +5525,29 @@
       <c r="B27" s="3">
         <v>1</v>
       </c>
-      <c r="C27" s="21"/>
-      <c r="D27" s="16">
+      <c r="C27" s="3"/>
+      <c r="D27" s="71">
         <v>3.0310433337723298E-2</v>
       </c>
-      <c r="E27" s="16">
+      <c r="E27" s="109">
         <v>6.76762926306969E-3</v>
       </c>
-      <c r="F27" s="16">
+      <c r="F27" s="109">
         <v>2.56660723892039E-2</v>
       </c>
-      <c r="G27" s="16">
+      <c r="G27" s="109">
         <v>7.0113110279196303E-3</v>
       </c>
-      <c r="H27" s="16">
+      <c r="H27" s="109">
         <v>2.7912109783679501E-2</v>
       </c>
-      <c r="I27" s="16">
+      <c r="I27" s="109">
         <v>2.6610770317616599E-2</v>
       </c>
-      <c r="J27" s="16">
+      <c r="J27" s="109">
         <v>2.9291711898844601E-2</v>
       </c>
-      <c r="K27" s="16">
+      <c r="K27" s="72">
         <v>5.2481844422201697E-3</v>
       </c>
     </row>
@@ -5539,29 +5556,29 @@
       <c r="B28" s="6">
         <v>2</v>
       </c>
-      <c r="C28" s="23"/>
-      <c r="D28" s="16">
+      <c r="C28" s="6"/>
+      <c r="D28" s="71">
         <v>2.5454403052688899E-2</v>
       </c>
-      <c r="E28" s="16">
+      <c r="E28" s="109">
         <v>3.94736842105263E-3</v>
       </c>
-      <c r="F28" s="16">
+      <c r="F28" s="109">
         <v>2.71904099210174E-2</v>
       </c>
-      <c r="G28" s="16">
+      <c r="G28" s="109">
         <v>8.4207515064449005E-3</v>
       </c>
-      <c r="H28" s="16">
+      <c r="H28" s="109">
         <v>3.08851890835386E-2</v>
       </c>
-      <c r="I28" s="16">
+      <c r="I28" s="109">
         <v>2.5632066908952401E-2</v>
       </c>
-      <c r="J28" s="16">
+      <c r="J28" s="109">
         <v>3.0200612042445899E-2</v>
       </c>
-      <c r="K28" s="16">
+      <c r="K28" s="72">
         <v>7.7276646519971598E-3</v>
       </c>
     </row>
@@ -5572,29 +5589,29 @@
       <c r="B29" s="3">
         <v>1</v>
       </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="16">
+      <c r="C29" s="3"/>
+      <c r="D29" s="71">
         <v>6.6768990715003307E-2</v>
       </c>
-      <c r="E29" s="16">
+      <c r="E29" s="109">
         <v>1.99482519417911E-2</v>
       </c>
-      <c r="F29" s="16">
+      <c r="F29" s="109">
         <v>4.0457352066630897E-2</v>
       </c>
-      <c r="G29" s="16">
+      <c r="G29" s="109">
         <v>2.0593664644151001E-2</v>
       </c>
-      <c r="H29" s="16">
+      <c r="H29" s="109">
         <v>1.6847732147493001E-2</v>
       </c>
-      <c r="I29" s="16">
+      <c r="I29" s="109">
         <v>1.6328517955251101E-2</v>
       </c>
-      <c r="J29" s="16">
+      <c r="J29" s="109">
         <v>4.8358348424395799E-2</v>
       </c>
-      <c r="K29" s="16">
+      <c r="K29" s="72">
         <v>1.05915294503061E-2</v>
       </c>
     </row>
@@ -5603,29 +5620,29 @@
       <c r="B30" s="6">
         <v>2</v>
       </c>
-      <c r="C30" s="23"/>
-      <c r="D30" s="16">
+      <c r="C30" s="6"/>
+      <c r="D30" s="73">
         <v>5.5949542419063102E-2</v>
       </c>
-      <c r="E30" s="16">
+      <c r="E30" s="74">
         <v>3.0962382030168802E-2</v>
       </c>
-      <c r="F30" s="16">
+      <c r="F30" s="74">
         <v>2.8240595485692199E-2</v>
       </c>
-      <c r="G30" s="16">
+      <c r="G30" s="74">
         <v>2.4906702854007701E-2</v>
       </c>
-      <c r="H30" s="16">
+      <c r="H30" s="74">
         <v>1.9317718897678401E-2</v>
       </c>
-      <c r="I30" s="16">
+      <c r="I30" s="74">
         <v>1.9811903165449101E-2</v>
       </c>
-      <c r="J30" s="16">
+      <c r="J30" s="74">
         <v>6.5117346835920797E-2</v>
       </c>
-      <c r="K30" s="16">
+      <c r="K30" s="75">
         <v>1.6008771929824601E-2</v>
       </c>
     </row>
@@ -5872,7 +5889,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5890,19 +5907,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6641,8 +6658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4279F1E-80F5-41C1-B97A-BFBE1F0D2B01}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6660,19 +6677,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7569,8 +7586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D980D9F8-6B96-4F95-8395-B1BF7462FEB8}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7588,19 +7605,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8196,28 +8213,28 @@
         <v>1</v>
       </c>
       <c r="C23" s="3"/>
-      <c r="D23">
+      <c r="D23" s="100">
         <v>7</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="101">
         <v>223</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="101">
         <v>102</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="101">
         <v>212</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="101">
         <v>226</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="101">
         <v>281</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="101">
         <v>26</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="102">
         <v>225</v>
       </c>
     </row>
@@ -8226,28 +8243,28 @@
       <c r="B24" s="1">
         <v>2</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="103">
         <v>21</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="104">
         <v>221</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="104">
         <v>98</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="104">
         <v>218</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="104">
         <v>220</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="104">
         <v>281</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="104">
         <v>9</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="105">
         <v>224</v>
       </c>
     </row>
@@ -8259,28 +8276,28 @@
         <v>1</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25">
+      <c r="D25" s="103">
         <v>192</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="104">
         <v>225</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="104">
         <v>166</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="104">
         <v>187</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="104">
         <v>225</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="104">
         <v>281</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="104">
         <v>163</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="105">
         <v>110</v>
       </c>
     </row>
@@ -8289,28 +8306,28 @@
       <c r="B26" s="1">
         <v>2</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="103">
         <v>188</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="104">
         <v>220</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="104">
         <v>162</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="104">
         <v>228</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="104">
         <v>214</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="104">
         <v>281</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="104">
         <v>150</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="105">
         <v>129</v>
       </c>
     </row>
@@ -8321,29 +8338,29 @@
       <c r="B27" s="3">
         <v>1</v>
       </c>
-      <c r="C27" s="21"/>
-      <c r="D27">
+      <c r="C27" s="3"/>
+      <c r="D27" s="103">
         <v>65</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="104">
         <v>46</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="104">
         <v>72</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="104">
         <v>46</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="104">
         <v>79</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="104">
         <v>77</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="104">
         <v>63</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="105">
         <v>47</v>
       </c>
     </row>
@@ -8352,29 +8369,29 @@
       <c r="B28" s="6">
         <v>2</v>
       </c>
-      <c r="C28" s="23"/>
-      <c r="D28">
+      <c r="C28" s="6"/>
+      <c r="D28" s="103">
         <v>80</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="104">
         <v>44</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="104">
         <v>69</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="104">
         <v>47</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="104">
         <v>79</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="104">
         <v>71</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="104">
         <v>67</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="105">
         <v>50</v>
       </c>
     </row>
@@ -8385,29 +8402,29 @@
       <c r="B29" s="3">
         <v>1</v>
       </c>
-      <c r="C29" s="21"/>
-      <c r="D29">
+      <c r="C29" s="3"/>
+      <c r="D29" s="103">
         <v>7</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="104">
         <v>225</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="104">
         <v>91</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="104">
         <v>230</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="104">
         <v>113</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="104">
         <v>226</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="104">
         <v>14</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="105">
         <v>180</v>
       </c>
     </row>
@@ -8416,29 +8433,29 @@
       <c r="B30" s="6">
         <v>2</v>
       </c>
-      <c r="C30" s="23"/>
-      <c r="D30">
+      <c r="C30" s="6"/>
+      <c r="D30" s="106">
         <v>14</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="107">
         <v>190</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="107">
         <v>140</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="107">
         <v>135</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="107">
         <v>146</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="107">
         <v>242</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="107">
         <v>38</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="108">
         <v>146</v>
       </c>
     </row>
@@ -8624,8 +8641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D696DEA4-1C6D-43BD-8BC6-2C617DFECF13}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8643,19 +8660,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9251,28 +9268,28 @@
         <v>1</v>
       </c>
       <c r="C23" s="3"/>
-      <c r="D23">
+      <c r="D23" s="100">
         <v>7</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="101">
         <v>217.16</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="101">
         <v>95.23</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="101">
         <v>217.62</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="101">
         <v>215.45</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="101">
         <v>241.91</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="101">
         <v>20.010000000000002</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="102">
         <v>216.96</v>
       </c>
     </row>
@@ -9281,28 +9298,28 @@
       <c r="B24" s="1">
         <v>2</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="103">
         <v>21.29</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="104">
         <v>216.68</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="104">
         <v>98.77</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="104">
         <v>215.84</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="104">
         <v>217.18</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="104">
         <v>281</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="104">
         <v>9.8800000000000008</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="105">
         <v>217.33</v>
       </c>
     </row>
@@ -9314,28 +9331,28 @@
         <v>1</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25">
+      <c r="D25" s="103">
         <v>176.45</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="104">
         <v>216.82</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="104">
         <v>156.43</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="104">
         <v>184.88</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="104">
         <v>222.23</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="104">
         <v>281</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="104">
         <v>169.04</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="105">
         <v>107.23</v>
       </c>
     </row>
@@ -9344,28 +9361,28 @@
       <c r="B26" s="1">
         <v>2</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="103">
         <v>191.35</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="104">
         <v>216.69</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="104">
         <v>155.52000000000001</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="104">
         <v>217.23</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="104">
         <v>217.56</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="104">
         <v>281</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="104">
         <v>134.22</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="105">
         <v>131.02000000000001</v>
       </c>
     </row>
@@ -9376,29 +9393,29 @@
       <c r="B27" s="3">
         <v>1</v>
       </c>
-      <c r="C27" s="21"/>
-      <c r="D27">
+      <c r="C27" s="3"/>
+      <c r="D27" s="103">
         <v>69.52</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="104">
         <v>45.97</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="104">
         <v>69.38</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="104">
         <v>44.5</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="104">
         <v>67.17</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="104">
         <v>70.459999999999994</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="104">
         <v>67</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="105">
         <v>47.02</v>
       </c>
     </row>
@@ -9407,29 +9424,29 @@
       <c r="B28" s="6">
         <v>2</v>
       </c>
-      <c r="C28" s="23"/>
-      <c r="D28">
+      <c r="C28" s="6"/>
+      <c r="D28" s="103">
         <v>70.56</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="104">
         <v>43.99</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="104">
         <v>69.3</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="104">
         <v>45.57</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="104">
         <v>71.56</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="104">
         <v>68.5</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="104">
         <v>70.16</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="105">
         <v>48.82</v>
       </c>
     </row>
@@ -9440,29 +9457,29 @@
       <c r="B29" s="3">
         <v>1</v>
       </c>
-      <c r="C29" s="21"/>
-      <c r="D29">
+      <c r="C29" s="3"/>
+      <c r="D29" s="103">
         <v>7.11</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="104">
         <v>223.52</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="104">
         <v>88.56</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="104">
         <v>220.72</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="104">
         <v>111.77</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="104">
         <v>217.56</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="104">
         <v>16.16</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="105">
         <v>176.81</v>
       </c>
     </row>
@@ -9471,29 +9488,29 @@
       <c r="B30" s="6">
         <v>2</v>
       </c>
-      <c r="C30" s="23"/>
-      <c r="D30">
+      <c r="C30" s="6"/>
+      <c r="D30" s="106">
         <v>14.2</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="107">
         <v>181.12</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="107">
         <v>137.88999999999999</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="107">
         <v>119.47</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="107">
         <v>137.35</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="107">
         <v>236.32</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="107">
         <v>33.159999999999997</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="108">
         <v>141.24</v>
       </c>
     </row>
@@ -9679,8 +9696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7F40056-F547-48DD-9331-37B657810592}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9698,19 +9715,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10306,7 +10323,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="92">
+      <c r="D23" s="91">
         <v>2</v>
       </c>
       <c r="E23" s="92">
@@ -10327,7 +10344,7 @@
       <c r="J23" s="92">
         <v>1</v>
       </c>
-      <c r="K23" s="92">
+      <c r="K23" s="93">
         <v>1</v>
       </c>
     </row>
@@ -10336,28 +10353,28 @@
       <c r="B24" s="1">
         <v>2</v>
       </c>
-      <c r="D24" s="92">
-        <v>2</v>
-      </c>
-      <c r="E24" s="92">
-        <v>1</v>
-      </c>
-      <c r="F24" s="92">
-        <v>1</v>
-      </c>
-      <c r="G24" s="92">
+      <c r="D24" s="94">
+        <v>2</v>
+      </c>
+      <c r="E24" s="95">
+        <v>1</v>
+      </c>
+      <c r="F24" s="95">
+        <v>1</v>
+      </c>
+      <c r="G24" s="95">
         <v>3</v>
       </c>
-      <c r="H24" s="92">
+      <c r="H24" s="95">
         <v>6</v>
       </c>
-      <c r="I24" s="92">
-        <v>2</v>
-      </c>
-      <c r="J24" s="92">
+      <c r="I24" s="95">
+        <v>2</v>
+      </c>
+      <c r="J24" s="95">
         <v>4</v>
       </c>
-      <c r="K24" s="92">
+      <c r="K24" s="96">
         <v>10</v>
       </c>
     </row>
@@ -10369,28 +10386,28 @@
         <v>1</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="92">
-        <v>1</v>
-      </c>
-      <c r="E25" s="92">
-        <v>1</v>
-      </c>
-      <c r="F25" s="92">
-        <v>2</v>
-      </c>
-      <c r="G25" s="92">
-        <v>1</v>
-      </c>
-      <c r="H25" s="92">
+      <c r="D25" s="94">
+        <v>1</v>
+      </c>
+      <c r="E25" s="95">
+        <v>1</v>
+      </c>
+      <c r="F25" s="95">
+        <v>2</v>
+      </c>
+      <c r="G25" s="95">
+        <v>1</v>
+      </c>
+      <c r="H25" s="95">
         <v>10</v>
       </c>
-      <c r="I25" s="92">
-        <v>2</v>
-      </c>
-      <c r="J25" s="92">
-        <v>1</v>
-      </c>
-      <c r="K25" s="92">
+      <c r="I25" s="95">
+        <v>2</v>
+      </c>
+      <c r="J25" s="95">
+        <v>1</v>
+      </c>
+      <c r="K25" s="96">
         <v>1</v>
       </c>
     </row>
@@ -10399,28 +10416,28 @@
       <c r="B26" s="1">
         <v>2</v>
       </c>
-      <c r="D26" s="92">
-        <v>2</v>
-      </c>
-      <c r="E26" s="92">
+      <c r="D26" s="94">
+        <v>2</v>
+      </c>
+      <c r="E26" s="95">
         <v>5</v>
       </c>
-      <c r="F26" s="92">
-        <v>2</v>
-      </c>
-      <c r="G26" s="92">
+      <c r="F26" s="95">
+        <v>2</v>
+      </c>
+      <c r="G26" s="95">
         <v>10</v>
       </c>
-      <c r="H26" s="92">
+      <c r="H26" s="95">
         <v>10</v>
       </c>
-      <c r="I26" s="92">
-        <v>2</v>
-      </c>
-      <c r="J26" s="92">
-        <v>1</v>
-      </c>
-      <c r="K26" s="92">
+      <c r="I26" s="95">
+        <v>2</v>
+      </c>
+      <c r="J26" s="95">
+        <v>1</v>
+      </c>
+      <c r="K26" s="96">
         <v>1</v>
       </c>
     </row>
@@ -10431,29 +10448,29 @@
       <c r="B27" s="3">
         <v>1</v>
       </c>
-      <c r="C27" s="21"/>
-      <c r="D27" s="92">
-        <v>1</v>
-      </c>
-      <c r="E27" s="92">
+      <c r="C27" s="3"/>
+      <c r="D27" s="94">
+        <v>1</v>
+      </c>
+      <c r="E27" s="95">
         <v>7</v>
       </c>
-      <c r="F27" s="92">
-        <v>2</v>
-      </c>
-      <c r="G27" s="92">
+      <c r="F27" s="95">
+        <v>2</v>
+      </c>
+      <c r="G27" s="95">
         <v>3</v>
       </c>
-      <c r="H27" s="92">
+      <c r="H27" s="95">
         <v>7</v>
       </c>
-      <c r="I27" s="92">
+      <c r="I27" s="95">
         <v>3</v>
       </c>
-      <c r="J27" s="92">
-        <v>1</v>
-      </c>
-      <c r="K27" s="92">
+      <c r="J27" s="95">
+        <v>1</v>
+      </c>
+      <c r="K27" s="96">
         <v>7</v>
       </c>
     </row>
@@ -10462,29 +10479,29 @@
       <c r="B28" s="6">
         <v>2</v>
       </c>
-      <c r="C28" s="23"/>
-      <c r="D28" s="92">
-        <v>1</v>
-      </c>
-      <c r="E28" s="92">
+      <c r="C28" s="6"/>
+      <c r="D28" s="94">
+        <v>1</v>
+      </c>
+      <c r="E28" s="95">
         <v>3</v>
       </c>
-      <c r="F28" s="92">
-        <v>2</v>
-      </c>
-      <c r="G28" s="92">
+      <c r="F28" s="95">
+        <v>2</v>
+      </c>
+      <c r="G28" s="95">
         <v>5</v>
       </c>
-      <c r="H28" s="92">
+      <c r="H28" s="95">
         <v>8</v>
       </c>
-      <c r="I28" s="92">
+      <c r="I28" s="95">
         <v>7</v>
       </c>
-      <c r="J28" s="92">
-        <v>1</v>
-      </c>
-      <c r="K28" s="92">
+      <c r="J28" s="95">
+        <v>1</v>
+      </c>
+      <c r="K28" s="96">
         <v>9</v>
       </c>
     </row>
@@ -10495,29 +10512,29 @@
       <c r="B29" s="3">
         <v>1</v>
       </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="92">
-        <v>1</v>
-      </c>
-      <c r="E29" s="92">
-        <v>1</v>
-      </c>
-      <c r="F29" s="92">
-        <v>1</v>
-      </c>
-      <c r="G29" s="92">
-        <v>1</v>
-      </c>
-      <c r="H29" s="92">
+      <c r="C29" s="3"/>
+      <c r="D29" s="94">
+        <v>1</v>
+      </c>
+      <c r="E29" s="95">
+        <v>1</v>
+      </c>
+      <c r="F29" s="95">
+        <v>1</v>
+      </c>
+      <c r="G29" s="95">
+        <v>1</v>
+      </c>
+      <c r="H29" s="95">
         <v>7</v>
       </c>
-      <c r="I29" s="92">
-        <v>1</v>
-      </c>
-      <c r="J29" s="92">
-        <v>2</v>
-      </c>
-      <c r="K29" s="92">
+      <c r="I29" s="95">
+        <v>1</v>
+      </c>
+      <c r="J29" s="95">
+        <v>2</v>
+      </c>
+      <c r="K29" s="96">
         <v>10</v>
       </c>
     </row>
@@ -10526,29 +10543,29 @@
       <c r="B30" s="6">
         <v>2</v>
       </c>
-      <c r="C30" s="23"/>
-      <c r="D30" s="92">
-        <v>1</v>
-      </c>
-      <c r="E30" s="92">
-        <v>1</v>
-      </c>
-      <c r="F30" s="92">
-        <v>1</v>
-      </c>
-      <c r="G30" s="92">
+      <c r="C30" s="6"/>
+      <c r="D30" s="97">
+        <v>1</v>
+      </c>
+      <c r="E30" s="98">
+        <v>1</v>
+      </c>
+      <c r="F30" s="98">
+        <v>1</v>
+      </c>
+      <c r="G30" s="98">
         <v>9</v>
       </c>
-      <c r="H30" s="92">
+      <c r="H30" s="98">
         <v>7</v>
       </c>
-      <c r="I30" s="92">
-        <v>1</v>
-      </c>
-      <c r="J30" s="92">
-        <v>2</v>
-      </c>
-      <c r="K30" s="92">
+      <c r="I30" s="98">
+        <v>1</v>
+      </c>
+      <c r="J30" s="98">
+        <v>2</v>
+      </c>
+      <c r="K30" s="99">
         <v>7</v>
       </c>
     </row>
@@ -10734,8 +10751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE5843C1-20CB-4050-94D7-D7DDEA36873C}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10753,19 +10770,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -11361,28 +11378,28 @@
         <v>1</v>
       </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="83">
-        <v>2</v>
-      </c>
-      <c r="E23" s="84">
-        <v>1</v>
-      </c>
-      <c r="F23" s="84">
+      <c r="D23" s="76">
+        <v>2</v>
+      </c>
+      <c r="E23" s="77">
+        <v>1</v>
+      </c>
+      <c r="F23" s="77">
         <v>4</v>
       </c>
-      <c r="G23" s="84">
-        <v>1</v>
-      </c>
-      <c r="H23" s="84">
+      <c r="G23" s="77">
+        <v>1</v>
+      </c>
+      <c r="H23" s="77">
         <v>8</v>
       </c>
-      <c r="I23" s="84">
-        <v>1</v>
-      </c>
-      <c r="J23" s="84">
-        <v>1</v>
-      </c>
-      <c r="K23" s="85">
+      <c r="I23" s="77">
+        <v>1</v>
+      </c>
+      <c r="J23" s="77">
+        <v>1</v>
+      </c>
+      <c r="K23" s="78">
         <v>1</v>
       </c>
     </row>
@@ -11391,28 +11408,28 @@
       <c r="B24" s="1">
         <v>2</v>
       </c>
-      <c r="D24" s="86">
-        <v>2</v>
-      </c>
-      <c r="E24" s="87">
-        <v>1</v>
-      </c>
-      <c r="F24" s="87">
-        <v>1</v>
-      </c>
-      <c r="G24" s="87">
+      <c r="D24" s="79">
+        <v>2</v>
+      </c>
+      <c r="E24" s="80">
+        <v>1</v>
+      </c>
+      <c r="F24" s="80">
+        <v>1</v>
+      </c>
+      <c r="G24" s="80">
         <v>3</v>
       </c>
-      <c r="H24" s="87">
+      <c r="H24" s="80">
         <v>6</v>
       </c>
-      <c r="I24" s="87">
-        <v>2</v>
-      </c>
-      <c r="J24" s="87">
+      <c r="I24" s="80">
+        <v>2</v>
+      </c>
+      <c r="J24" s="80">
         <v>4</v>
       </c>
-      <c r="K24" s="88">
+      <c r="K24" s="81">
         <v>10</v>
       </c>
     </row>
@@ -11424,28 +11441,28 @@
         <v>1</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="86">
-        <v>1</v>
-      </c>
-      <c r="E25" s="87">
-        <v>1</v>
-      </c>
-      <c r="F25" s="87">
-        <v>2</v>
-      </c>
-      <c r="G25" s="87">
-        <v>1</v>
-      </c>
-      <c r="H25" s="87">
+      <c r="D25" s="79">
+        <v>1</v>
+      </c>
+      <c r="E25" s="80">
+        <v>1</v>
+      </c>
+      <c r="F25" s="80">
+        <v>2</v>
+      </c>
+      <c r="G25" s="80">
+        <v>1</v>
+      </c>
+      <c r="H25" s="80">
         <v>10</v>
       </c>
-      <c r="I25" s="87">
-        <v>2</v>
-      </c>
-      <c r="J25" s="87">
-        <v>1</v>
-      </c>
-      <c r="K25" s="88">
+      <c r="I25" s="80">
+        <v>2</v>
+      </c>
+      <c r="J25" s="80">
+        <v>1</v>
+      </c>
+      <c r="K25" s="81">
         <v>1</v>
       </c>
     </row>
@@ -11454,28 +11471,28 @@
       <c r="B26" s="1">
         <v>2</v>
       </c>
-      <c r="D26" s="86">
-        <v>2</v>
-      </c>
-      <c r="E26" s="87">
+      <c r="D26" s="79">
+        <v>2</v>
+      </c>
+      <c r="E26" s="80">
         <v>5</v>
       </c>
-      <c r="F26" s="87">
-        <v>2</v>
-      </c>
-      <c r="G26" s="87">
+      <c r="F26" s="80">
+        <v>2</v>
+      </c>
+      <c r="G26" s="80">
         <v>10</v>
       </c>
-      <c r="H26" s="87">
+      <c r="H26" s="80">
         <v>10</v>
       </c>
-      <c r="I26" s="87">
-        <v>2</v>
-      </c>
-      <c r="J26" s="87">
-        <v>1</v>
-      </c>
-      <c r="K26" s="88">
+      <c r="I26" s="80">
+        <v>2</v>
+      </c>
+      <c r="J26" s="80">
+        <v>1</v>
+      </c>
+      <c r="K26" s="81">
         <v>1</v>
       </c>
     </row>
@@ -11487,28 +11504,28 @@
         <v>1</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="86">
-        <v>1</v>
-      </c>
-      <c r="E27" s="87">
+      <c r="D27" s="79">
+        <v>1</v>
+      </c>
+      <c r="E27" s="80">
         <v>7</v>
       </c>
-      <c r="F27" s="87">
-        <v>2</v>
-      </c>
-      <c r="G27" s="87">
+      <c r="F27" s="80">
+        <v>2</v>
+      </c>
+      <c r="G27" s="80">
         <v>3</v>
       </c>
-      <c r="H27" s="87">
+      <c r="H27" s="80">
         <v>7</v>
       </c>
-      <c r="I27" s="87">
+      <c r="I27" s="80">
         <v>3</v>
       </c>
-      <c r="J27" s="87">
-        <v>1</v>
-      </c>
-      <c r="K27" s="88">
+      <c r="J27" s="80">
+        <v>1</v>
+      </c>
+      <c r="K27" s="81">
         <v>7</v>
       </c>
     </row>
@@ -11518,28 +11535,28 @@
         <v>2</v>
       </c>
       <c r="C28" s="6"/>
-      <c r="D28" s="86">
-        <v>1</v>
-      </c>
-      <c r="E28" s="87">
+      <c r="D28" s="79">
+        <v>1</v>
+      </c>
+      <c r="E28" s="80">
         <v>3</v>
       </c>
-      <c r="F28" s="87">
-        <v>2</v>
-      </c>
-      <c r="G28" s="87">
+      <c r="F28" s="80">
+        <v>2</v>
+      </c>
+      <c r="G28" s="80">
         <v>5</v>
       </c>
-      <c r="H28" s="87">
+      <c r="H28" s="80">
         <v>8</v>
       </c>
-      <c r="I28" s="87">
+      <c r="I28" s="80">
         <v>7</v>
       </c>
-      <c r="J28" s="87">
-        <v>1</v>
-      </c>
-      <c r="K28" s="88">
+      <c r="J28" s="80">
+        <v>1</v>
+      </c>
+      <c r="K28" s="81">
         <v>9</v>
       </c>
     </row>
@@ -11551,28 +11568,28 @@
         <v>1</v>
       </c>
       <c r="C29" s="3"/>
-      <c r="D29" s="86">
-        <v>1</v>
-      </c>
-      <c r="E29" s="87">
-        <v>1</v>
-      </c>
-      <c r="F29" s="87">
-        <v>1</v>
-      </c>
-      <c r="G29" s="87">
-        <v>1</v>
-      </c>
-      <c r="H29" s="87">
+      <c r="D29" s="79">
+        <v>1</v>
+      </c>
+      <c r="E29" s="80">
+        <v>1</v>
+      </c>
+      <c r="F29" s="80">
+        <v>1</v>
+      </c>
+      <c r="G29" s="80">
+        <v>1</v>
+      </c>
+      <c r="H29" s="80">
         <v>7</v>
       </c>
-      <c r="I29" s="87">
-        <v>1</v>
-      </c>
-      <c r="J29" s="87">
-        <v>2</v>
-      </c>
-      <c r="K29" s="88">
+      <c r="I29" s="80">
+        <v>1</v>
+      </c>
+      <c r="J29" s="80">
+        <v>2</v>
+      </c>
+      <c r="K29" s="81">
         <v>10</v>
       </c>
     </row>
@@ -11582,28 +11599,28 @@
         <v>2</v>
       </c>
       <c r="C30" s="6"/>
-      <c r="D30" s="89">
-        <v>1</v>
-      </c>
-      <c r="E30" s="90">
-        <v>1</v>
-      </c>
-      <c r="F30" s="90">
-        <v>1</v>
-      </c>
-      <c r="G30" s="90">
+      <c r="D30" s="82">
+        <v>1</v>
+      </c>
+      <c r="E30" s="83">
+        <v>1</v>
+      </c>
+      <c r="F30" s="83">
+        <v>1</v>
+      </c>
+      <c r="G30" s="83">
         <v>9</v>
       </c>
-      <c r="H30" s="90">
+      <c r="H30" s="83">
         <v>7</v>
       </c>
-      <c r="I30" s="90">
-        <v>1</v>
-      </c>
-      <c r="J30" s="90">
-        <v>2</v>
-      </c>
-      <c r="K30" s="91">
+      <c r="I30" s="83">
+        <v>1</v>
+      </c>
+      <c r="J30" s="83">
+        <v>2</v>
+      </c>
+      <c r="K30" s="84">
         <v>7</v>
       </c>
     </row>
@@ -11790,7 +11807,7 @@
   <dimension ref="A1:P53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11810,24 +11827,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
     </row>
     <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -11837,29 +11854,29 @@
       <c r="E3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="69" t="s">
+      <c r="F3" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
       <c r="I3" s="18" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="70" t="s">
+      <c r="K3" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="71"/>
-      <c r="M3" s="70" t="s">
+      <c r="L3" s="88"/>
+      <c r="M3" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="71"/>
-      <c r="O3" s="70" t="s">
+      <c r="N3" s="88"/>
+      <c r="O3" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="72"/>
+      <c r="P3" s="89"/>
     </row>
     <row r="4" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">

--- a/results_analysis/spark_motorFailure_02_hold_01_best.xlsx
+++ b/results_analysis/spark_motorFailure_02_hold_01_best.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\mltool_matlab_fp\results_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FBA9A77-7838-45EF-AFC3-A3ED56A6F594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{044C9D61-F7DC-4C95-992A-7A7EE2EC1953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="734" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="734" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="acc_mean" sheetId="1" r:id="rId1"/>
@@ -527,7 +527,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -730,6 +730,37 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -748,43 +779,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1067,41 +1082,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="68" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-    </row>
-    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1136,7 +1151,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1171,7 +1186,7 @@
         <v>0.93138157894736895</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -1201,7 +1216,7 @@
         <v>0.75342105263157899</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="1">
         <v>2</v>
@@ -1234,7 +1249,7 @@
         <v>0.91703947368421102</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
@@ -1265,7 +1280,7 @@
         <v>0.99546052631578896</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -1300,7 +1315,7 @@
         <v>0.785855263157895</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
@@ -1330,7 +1345,7 @@
         <v>0.75098684210526301</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="1">
         <v>2</v>
@@ -1363,7 +1378,7 @@
         <v>0.86407894736842095</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
@@ -1394,7 +1409,7 @@
         <v>0.709342105263158</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -1429,7 +1444,7 @@
         <v>0.89269736842105296</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
@@ -1459,7 +1474,7 @@
         <v>0.99802631578947398</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="1">
         <v>2</v>
@@ -1492,7 +1507,7 @@
         <v>0.89197368421052703</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
@@ -1523,7 +1538,7 @@
         <v>0.99151315789473704</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -1558,7 +1573,7 @@
         <v>0.93500000000000005</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
@@ -1588,7 +1603,7 @@
         <v>0.97835526315789401</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="1">
         <v>2</v>
@@ -1621,7 +1636,7 @@
         <v>0.93578947368421095</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
@@ -1652,7 +1667,7 @@
         <v>0.96440789473684196</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
@@ -1662,7 +1677,7 @@
       <c r="J21" s="16"/>
       <c r="K21" s="16"/>
     </row>
-    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>0</v>
       </c>
@@ -1695,7 +1710,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>1</v>
       </c>
@@ -1703,62 +1718,62 @@
         <v>1</v>
       </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="74">
+      <c r="D23" s="68">
         <v>0.624605263157895</v>
       </c>
-      <c r="E23" s="75">
+      <c r="E23" s="91">
         <v>0.93361842105263204</v>
       </c>
-      <c r="F23" s="75">
+      <c r="F23" s="69">
         <v>0.79631578947368398</v>
       </c>
-      <c r="G23" s="75">
+      <c r="G23" s="91">
         <v>0.93388157894736901</v>
       </c>
-      <c r="H23" s="75">
+      <c r="H23" s="91">
         <v>0.97256578947368399</v>
       </c>
-      <c r="I23" s="75">
+      <c r="I23" s="69">
         <v>0.86565789473684196</v>
       </c>
-      <c r="J23" s="75">
+      <c r="J23" s="69">
         <v>0.65690789473684197</v>
       </c>
-      <c r="K23" s="76">
+      <c r="K23" s="70">
         <v>0.93138157894736895</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="1">
         <v>2</v>
       </c>
-      <c r="D24" s="80">
+      <c r="D24" s="72">
         <v>0.70256578947368398</v>
       </c>
-      <c r="E24" s="81">
+      <c r="E24" s="73">
         <v>0.93546052631578902</v>
       </c>
-      <c r="F24" s="81">
+      <c r="F24" s="73">
         <v>0.86427631578947395</v>
       </c>
-      <c r="G24" s="81">
+      <c r="G24" s="93">
         <v>0.94552631578947399</v>
       </c>
-      <c r="H24" s="81">
+      <c r="H24" s="93">
         <v>0.97427631578947305</v>
       </c>
-      <c r="I24" s="81">
+      <c r="I24" s="73">
         <v>0.91447368421052599</v>
       </c>
-      <c r="J24" s="81">
+      <c r="J24" s="73">
         <v>0.63809210526315796</v>
       </c>
-      <c r="K24" s="82">
+      <c r="K24" s="92">
         <v>0.99546052631578896</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>3</v>
       </c>
@@ -1766,62 +1781,62 @@
         <v>1</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="74">
+      <c r="D25" s="68">
         <v>0.90881578947368502</v>
       </c>
-      <c r="E25" s="75">
+      <c r="E25" s="91">
         <v>0.936907894736842</v>
       </c>
-      <c r="F25" s="75">
+      <c r="F25" s="69">
         <v>0.88717105263157903</v>
       </c>
-      <c r="G25" s="75">
+      <c r="G25" s="69">
         <v>0.89598684210526303</v>
       </c>
-      <c r="H25" s="75">
+      <c r="H25" s="91">
         <v>0.98815789473684201</v>
       </c>
-      <c r="I25" s="75">
+      <c r="I25" s="91">
         <v>0.92105263157894701</v>
       </c>
-      <c r="J25" s="75">
+      <c r="J25" s="69">
         <v>0.90072368421052695</v>
       </c>
-      <c r="K25" s="76">
+      <c r="K25" s="70">
         <v>0.785855263157895</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="1">
         <v>2</v>
       </c>
-      <c r="D26" s="80">
+      <c r="D26" s="94">
         <v>0.93164473684210503</v>
       </c>
-      <c r="E26" s="81">
+      <c r="E26" s="73">
         <v>0.80677631578947395</v>
       </c>
-      <c r="F26" s="81">
+      <c r="F26" s="73">
         <v>0.924276315789474</v>
       </c>
-      <c r="G26" s="81">
+      <c r="G26" s="93">
         <v>0.96302631578947295</v>
       </c>
-      <c r="H26" s="81">
+      <c r="H26" s="93">
         <v>0.99671052631579005</v>
       </c>
-      <c r="I26" s="81">
+      <c r="I26" s="73">
         <v>0.92019736842105304</v>
       </c>
-      <c r="J26" s="81">
+      <c r="J26" s="73">
         <v>0.91355263157894695</v>
       </c>
-      <c r="K26" s="82">
+      <c r="K26" s="74">
         <v>0.86407894736842095</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>4</v>
       </c>
@@ -1829,63 +1844,63 @@
         <v>1</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="74">
+      <c r="D27" s="68">
         <v>0.89348684210526297</v>
       </c>
-      <c r="E27" s="75">
+      <c r="E27" s="91">
         <v>0.99881578947368399</v>
       </c>
-      <c r="F27" s="75">
+      <c r="F27" s="69">
         <v>0.89572368421052595</v>
       </c>
-      <c r="G27" s="75">
+      <c r="G27" s="91">
         <v>0.99776315789473702</v>
       </c>
-      <c r="H27" s="75">
+      <c r="H27" s="69">
         <v>0.90657894736842104</v>
       </c>
-      <c r="I27" s="75">
+      <c r="I27" s="69">
         <v>0.90282894736842101</v>
       </c>
-      <c r="J27" s="75">
+      <c r="J27" s="69">
         <v>0.87124999999999997</v>
       </c>
-      <c r="K27" s="76">
+      <c r="K27" s="95">
         <v>0.99802631578947398</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
       <c r="B28" s="6">
         <v>2</v>
       </c>
       <c r="C28" s="6"/>
-      <c r="D28" s="80">
+      <c r="D28" s="72">
         <v>0.89736842105263204</v>
       </c>
-      <c r="E28" s="81">
+      <c r="E28" s="93">
         <v>0.999605263157895</v>
       </c>
-      <c r="F28" s="81">
+      <c r="F28" s="73">
         <v>0.89710526315789496</v>
       </c>
-      <c r="G28" s="81">
+      <c r="G28" s="93">
         <v>0.99611842105263204</v>
       </c>
-      <c r="H28" s="81">
+      <c r="H28" s="73">
         <v>0.91421052631579003</v>
       </c>
-      <c r="I28" s="81">
+      <c r="I28" s="73">
         <v>0.91328947368421098</v>
       </c>
-      <c r="J28" s="81">
+      <c r="J28" s="73">
         <v>0.89414473684210605</v>
       </c>
-      <c r="K28" s="82">
+      <c r="K28" s="92">
         <v>0.99151315789473704</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>5</v>
       </c>
@@ -1893,63 +1908,63 @@
         <v>1</v>
       </c>
       <c r="C29" s="3"/>
-      <c r="D29" s="77">
+      <c r="D29" s="71">
         <v>0.61848684210526295</v>
       </c>
-      <c r="E29" s="78">
+      <c r="E29" s="16">
         <v>0.92703947368421102</v>
       </c>
-      <c r="F29" s="78">
+      <c r="F29" s="16">
         <v>0.80236842105263195</v>
       </c>
-      <c r="G29" s="78">
+      <c r="G29" s="97">
         <v>0.93513157894736898</v>
       </c>
-      <c r="H29" s="78">
+      <c r="H29" s="97">
         <v>0.96223684210526295</v>
       </c>
-      <c r="I29" s="78">
+      <c r="I29" s="16">
         <v>0.93447368421052601</v>
       </c>
-      <c r="J29" s="78">
+      <c r="J29" s="16">
         <v>0.66427631578947399</v>
       </c>
-      <c r="K29" s="79">
+      <c r="K29" s="96">
         <v>0.97835526315789401</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
       <c r="B30" s="6">
         <v>2</v>
       </c>
       <c r="C30" s="6"/>
-      <c r="D30" s="80">
+      <c r="D30" s="72">
         <v>0.66539473684210504</v>
       </c>
-      <c r="E30" s="81">
+      <c r="E30" s="73">
         <v>0.88276315789473703</v>
       </c>
-      <c r="F30" s="81">
+      <c r="F30" s="73">
         <v>0.88875000000000004</v>
       </c>
-      <c r="G30" s="81">
+      <c r="G30" s="93">
         <v>0.94059210526315795</v>
       </c>
-      <c r="H30" s="81">
+      <c r="H30" s="93">
         <v>0.95802631578947295</v>
       </c>
-      <c r="I30" s="81">
+      <c r="I30" s="73">
         <v>0.93164473684210503</v>
       </c>
-      <c r="J30" s="81">
+      <c r="J30" s="73">
         <v>0.73848684210526305</v>
       </c>
-      <c r="K30" s="82">
+      <c r="K30" s="92">
         <v>0.96440789473684196</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
       <c r="F31" s="16"/>
@@ -1959,7 +1974,7 @@
       <c r="J31" s="16"/>
       <c r="K31" s="16"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
       <c r="F32" s="16"/>
@@ -1969,7 +1984,7 @@
       <c r="J32" s="16"/>
       <c r="K32" s="16"/>
     </row>
-    <row r="33" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D33" s="16"/>
       <c r="E33" s="16"/>
       <c r="F33" s="16"/>
@@ -1979,7 +1994,7 @@
       <c r="J33" s="16"/>
       <c r="K33" s="16"/>
     </row>
-    <row r="34" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D34" s="16"/>
       <c r="E34" s="16"/>
       <c r="F34" s="16"/>
@@ -1989,7 +2004,7 @@
       <c r="J34" s="16"/>
       <c r="K34" s="16"/>
     </row>
-    <row r="35" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D35" s="16"/>
       <c r="E35" s="16"/>
       <c r="F35" s="16"/>
@@ -1999,7 +2014,7 @@
       <c r="J35" s="16"/>
       <c r="K35" s="16"/>
     </row>
-    <row r="36" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D36" s="16"/>
       <c r="E36" s="16"/>
       <c r="F36" s="16"/>
@@ -2009,7 +2024,7 @@
       <c r="J36" s="16"/>
       <c r="K36" s="16"/>
     </row>
-    <row r="37" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -2019,7 +2034,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -2029,7 +2044,7 @@
       <c r="J38" s="10"/>
       <c r="K38" s="10"/>
     </row>
-    <row r="39" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
@@ -2039,7 +2054,7 @@
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -2049,7 +2064,7 @@
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
     </row>
-    <row r="41" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
@@ -2059,7 +2074,7 @@
       <c r="J41" s="10"/>
       <c r="K41" s="10"/>
     </row>
-    <row r="42" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
@@ -2069,7 +2084,7 @@
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
     </row>
-    <row r="43" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
@@ -2079,7 +2094,7 @@
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -2089,7 +2104,7 @@
       <c r="J44" s="10"/>
       <c r="K44" s="10"/>
     </row>
-    <row r="45" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
@@ -2099,7 +2114,7 @@
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
@@ -2109,7 +2124,7 @@
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
     </row>
-    <row r="47" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
@@ -2119,7 +2134,7 @@
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
     </row>
-    <row r="48" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
@@ -2129,7 +2144,7 @@
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
     </row>
-    <row r="49" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
@@ -2139,7 +2154,7 @@
       <c r="J49" s="10"/>
       <c r="K49" s="10"/>
     </row>
-    <row r="50" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
@@ -2149,7 +2164,7 @@
       <c r="J50" s="10"/>
       <c r="K50" s="10"/>
     </row>
-    <row r="51" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
@@ -2159,7 +2174,7 @@
       <c r="J51" s="10"/>
       <c r="K51" s="10"/>
     </row>
-    <row r="52" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
@@ -2169,7 +2184,7 @@
       <c r="J52" s="10"/>
       <c r="K52" s="10"/>
     </row>
-    <row r="53" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
@@ -2195,82 +2210,82 @@
       <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="68" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-    </row>
-    <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D3" s="73" t="s">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+    </row>
+    <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="71"/>
-      <c r="F3" s="70" t="s">
+      <c r="E3" s="88"/>
+      <c r="F3" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="71"/>
-      <c r="H3" s="70" t="s">
+      <c r="G3" s="88"/>
+      <c r="H3" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="71"/>
-      <c r="J3" s="70" t="s">
+      <c r="I3" s="88"/>
+      <c r="J3" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="71"/>
-      <c r="L3" s="70" t="s">
+      <c r="K3" s="88"/>
+      <c r="L3" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="71"/>
-      <c r="N3" s="70" t="s">
+      <c r="M3" s="88"/>
+      <c r="N3" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="71"/>
-      <c r="P3" s="70" t="s">
+      <c r="O3" s="88"/>
+      <c r="P3" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="71"/>
-      <c r="R3" s="70" t="s">
+      <c r="Q3" s="88"/>
+      <c r="R3" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="72"/>
-    </row>
-    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S3" s="89"/>
+    </row>
+    <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -2329,7 +2344,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -2388,7 +2403,7 @@
         <v>1024.001</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -2442,7 +2457,7 @@
         <v>1024.001</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="1">
         <v>2</v>
@@ -2499,7 +2514,7 @@
         <v>1024.001</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
@@ -2554,7 +2569,7 @@
         <v>1024.001</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -2613,7 +2628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
@@ -2667,7 +2682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="1">
         <v>2</v>
@@ -2724,7 +2739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
@@ -2779,7 +2794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -2838,7 +2853,7 @@
         <v>4.8828125E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
@@ -2892,7 +2907,7 @@
         <v>16.0009765625</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="1">
         <v>2</v>
@@ -2949,7 +2964,7 @@
         <v>1.66015625E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
@@ -3004,7 +3019,7 @@
         <v>128.0009765625</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -3063,7 +3078,7 @@
         <v>16.0009765625</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
@@ -3117,7 +3132,7 @@
         <v>128.0009765625</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="1">
         <v>2</v>
@@ -3174,7 +3189,7 @@
         <v>128.0009765625</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
@@ -3229,10 +3244,10 @@
         <v>256.0009765625</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>
     </row>
-    <row r="37" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -3249,7 +3264,7 @@
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
     </row>
-    <row r="38" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -3266,7 +3281,7 @@
       <c r="Q38" s="10"/>
       <c r="R38" s="10"/>
     </row>
-    <row r="39" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
@@ -3283,7 +3298,7 @@
       <c r="Q39" s="10"/>
       <c r="R39" s="10"/>
     </row>
-    <row r="40" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -3300,7 +3315,7 @@
       <c r="Q40" s="10"/>
       <c r="R40" s="10"/>
     </row>
-    <row r="41" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
@@ -3317,7 +3332,7 @@
       <c r="Q41" s="10"/>
       <c r="R41" s="10"/>
     </row>
-    <row r="42" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
@@ -3334,7 +3349,7 @@
       <c r="Q42" s="10"/>
       <c r="R42" s="10"/>
     </row>
-    <row r="43" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
@@ -3351,7 +3366,7 @@
       <c r="Q43" s="10"/>
       <c r="R43" s="10"/>
     </row>
-    <row r="44" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -3368,7 +3383,7 @@
       <c r="Q44" s="10"/>
       <c r="R44" s="10"/>
     </row>
-    <row r="45" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
@@ -3385,7 +3400,7 @@
       <c r="Q45" s="10"/>
       <c r="R45" s="10"/>
     </row>
-    <row r="46" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
@@ -3402,7 +3417,7 @@
       <c r="Q46" s="10"/>
       <c r="R46" s="10"/>
     </row>
-    <row r="47" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
@@ -3419,7 +3434,7 @@
       <c r="Q47" s="10"/>
       <c r="R47" s="10"/>
     </row>
-    <row r="48" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
@@ -3436,7 +3451,7 @@
       <c r="Q48" s="10"/>
       <c r="R48" s="10"/>
     </row>
-    <row r="49" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
@@ -3453,7 +3468,7 @@
       <c r="Q49" s="10"/>
       <c r="R49" s="10"/>
     </row>
-    <row r="50" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
@@ -3470,7 +3485,7 @@
       <c r="Q50" s="10"/>
       <c r="R50" s="10"/>
     </row>
-    <row r="51" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
@@ -3487,7 +3502,7 @@
       <c r="Q51" s="10"/>
       <c r="R51" s="10"/>
     </row>
-    <row r="52" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
@@ -3504,7 +3519,7 @@
       <c r="Q52" s="10"/>
       <c r="R52" s="10"/>
     </row>
-    <row r="53" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
@@ -3545,39 +3560,39 @@
       <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="68" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -3612,7 +3627,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -3647,7 +3662,7 @@
         <v>0.94764861651653998</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
@@ -3678,7 +3693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="1">
         <v>2</v>
@@ -3711,7 +3726,7 @@
         <v>0.93397635299668602</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
@@ -3742,7 +3757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -3777,7 +3792,7 @@
         <v>0.77962978055403498</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
@@ -3808,7 +3823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="1">
         <v>2</v>
@@ -3841,7 +3856,7 @@
         <v>0.89726059190318397</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
@@ -3872,7 +3887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -3907,7 +3922,7 @@
         <v>0.90960695635816202</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
@@ -3938,7 +3953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="1">
         <v>2</v>
@@ -3971,7 +3986,7 @@
         <v>0.92323101788482598</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
@@ -4002,7 +4017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -4037,7 +4052,7 @@
         <v>0.97400820485371797</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
@@ -4068,7 +4083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="1">
         <v>2</v>
@@ -4101,7 +4116,7 @@
         <v>0.94870929044193297</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
@@ -4148,39 +4163,39 @@
       <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="68" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -4215,7 +4230,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -4250,7 +4265,7 @@
         <v>0.97312113174182102</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
@@ -4281,7 +4296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="1">
         <v>2</v>
@@ -4314,7 +4329,7 @@
         <v>0.96586264205183503</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
@@ -4345,7 +4360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -4380,7 +4395,7 @@
         <v>0.88792019084797202</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
@@ -4411,7 +4426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="1">
         <v>2</v>
@@ -4444,7 +4459,7 @@
         <v>0.94713962789080197</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
@@ -4475,7 +4490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -4510,7 +4525,7 @@
         <v>0.95266693358245502</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
@@ -4541,7 +4556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="1">
         <v>2</v>
@@ -4574,7 +4589,7 @@
         <v>0.96008403361344496</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
@@ -4605,7 +4620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -4640,7 +4655,7 @@
         <v>0.98683298683298704</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
@@ -4671,7 +4686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="1">
         <v>2</v>
@@ -4704,7 +4719,7 @@
         <v>0.97367965367965403</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
@@ -4751,37 +4766,37 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="68" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-    </row>
-    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -4816,7 +4831,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -4851,7 +4866,7 @@
         <v>1.96203143435426E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -4881,7 +4896,7 @@
         <v>0.243851688853818</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="1">
         <v>2</v>
@@ -4914,7 +4929,7 @@
         <v>2.3431350739710598E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
@@ -4945,7 +4960,7 @@
         <v>7.75026186275101E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -4980,7 +4995,7 @@
         <v>3.5129747058627502E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
@@ -5010,7 +5025,7 @@
         <v>0.25083169632126501</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="1">
         <v>2</v>
@@ -5043,7 +5058,7 @@
         <v>3.0418780233334601E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
@@ -5074,7 +5089,7 @@
         <v>0.227125812920181</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -5109,7 +5124,7 @@
         <v>2.8922815332557798E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
@@ -5139,7 +5154,7 @@
         <v>5.2481844422201697E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="1">
         <v>2</v>
@@ -5172,7 +5187,7 @@
         <v>2.82728552995982E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
@@ -5203,7 +5218,7 @@
         <v>7.7276646519971598E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -5238,7 +5253,7 @@
         <v>1.82828796836507E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
@@ -5268,7 +5283,7 @@
         <v>1.05915294503061E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="1">
         <v>2</v>
@@ -5301,7 +5316,7 @@
         <v>2.20118084754308E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
@@ -5332,7 +5347,7 @@
         <v>1.6008771929824601E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
@@ -5342,7 +5357,7 @@
       <c r="J21" s="16"/>
       <c r="K21" s="16"/>
     </row>
-    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>0</v>
       </c>
@@ -5375,7 +5390,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>1</v>
       </c>
@@ -5408,7 +5423,7 @@
         <v>1.96203143435426E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="1">
         <v>2</v>
@@ -5438,7 +5453,7 @@
         <v>7.75026186275101E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>3</v>
       </c>
@@ -5471,7 +5486,7 @@
         <v>3.5129747058627502E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="1">
         <v>2</v>
@@ -5501,7 +5516,7 @@
         <v>3.0418780233334601E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>4</v>
       </c>
@@ -5534,7 +5549,7 @@
         <v>5.2481844422201697E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
       <c r="B28" s="6">
         <v>2</v>
@@ -5565,7 +5580,7 @@
         <v>7.7276646519971598E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>5</v>
       </c>
@@ -5598,7 +5613,7 @@
         <v>1.05915294503061E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
       <c r="B30" s="6">
         <v>2</v>
@@ -5629,7 +5644,7 @@
         <v>1.6008771929824601E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
       <c r="F31" s="16"/>
@@ -5639,7 +5654,7 @@
       <c r="J31" s="16"/>
       <c r="K31" s="16"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
       <c r="F32" s="16"/>
@@ -5649,7 +5664,7 @@
       <c r="J32" s="16"/>
       <c r="K32" s="16"/>
     </row>
-    <row r="33" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D33" s="16"/>
       <c r="E33" s="16"/>
       <c r="F33" s="16"/>
@@ -5659,7 +5674,7 @@
       <c r="J33" s="16"/>
       <c r="K33" s="16"/>
     </row>
-    <row r="34" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D34" s="16"/>
       <c r="E34" s="16"/>
       <c r="F34" s="16"/>
@@ -5669,7 +5684,7 @@
       <c r="J34" s="16"/>
       <c r="K34" s="16"/>
     </row>
-    <row r="35" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D35" s="16"/>
       <c r="E35" s="16"/>
       <c r="F35" s="16"/>
@@ -5679,7 +5694,7 @@
       <c r="J35" s="16"/>
       <c r="K35" s="16"/>
     </row>
-    <row r="36" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D36" s="16"/>
       <c r="E36" s="16"/>
       <c r="F36" s="16"/>
@@ -5689,7 +5704,7 @@
       <c r="J36" s="16"/>
       <c r="K36" s="16"/>
     </row>
-    <row r="37" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -5699,7 +5714,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -5709,7 +5724,7 @@
       <c r="J38" s="10"/>
       <c r="K38" s="10"/>
     </row>
-    <row r="39" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
@@ -5719,7 +5734,7 @@
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -5729,7 +5744,7 @@
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
     </row>
-    <row r="41" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
@@ -5739,7 +5754,7 @@
       <c r="J41" s="10"/>
       <c r="K41" s="10"/>
     </row>
-    <row r="42" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
@@ -5749,7 +5764,7 @@
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
     </row>
-    <row r="43" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
@@ -5759,7 +5774,7 @@
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -5769,7 +5784,7 @@
       <c r="J44" s="10"/>
       <c r="K44" s="10"/>
     </row>
-    <row r="45" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
@@ -5779,7 +5794,7 @@
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
@@ -5789,7 +5804,7 @@
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
     </row>
-    <row r="47" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
@@ -5799,7 +5814,7 @@
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
     </row>
-    <row r="48" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
@@ -5809,7 +5824,7 @@
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
     </row>
-    <row r="49" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
@@ -5819,7 +5834,7 @@
       <c r="J49" s="10"/>
       <c r="K49" s="10"/>
     </row>
-    <row r="50" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
@@ -5829,7 +5844,7 @@
       <c r="J50" s="10"/>
       <c r="K50" s="10"/>
     </row>
-    <row r="51" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
@@ -5839,7 +5854,7 @@
       <c r="J51" s="10"/>
       <c r="K51" s="10"/>
     </row>
-    <row r="52" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
@@ -5849,7 +5864,7 @@
       <c r="J52" s="10"/>
       <c r="K52" s="10"/>
     </row>
-    <row r="53" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
@@ -5875,37 +5890,37 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="68" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-    </row>
-    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -5940,7 +5955,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -5975,7 +5990,7 @@
         <v>0.93421052631579005</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -6005,7 +6020,7 @@
         <v>0.77302631578947401</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="1">
         <v>2</v>
@@ -6038,7 +6053,7 @@
         <v>0.91447368421052599</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
@@ -6069,7 +6084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -6104,7 +6119,7 @@
         <v>0.78618421052631604</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
@@ -6134,7 +6149,7 @@
         <v>0.77302631578947401</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="1">
         <v>2</v>
@@ -6167,7 +6182,7 @@
         <v>0.86513157894736803</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
@@ -6198,7 +6213,7 @@
         <v>0.57236842105263197</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -6233,7 +6248,7 @@
         <v>0.89473684210526305</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
@@ -6263,7 +6278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="1">
         <v>2</v>
@@ -6296,7 +6311,7 @@
         <v>0.89473684210526305</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
@@ -6327,7 +6342,7 @@
         <v>0.99342105263157898</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -6362,7 +6377,7 @@
         <v>0.9375</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
@@ -6392,7 +6407,7 @@
         <v>0.98026315789473695</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="1">
         <v>2</v>
@@ -6425,7 +6440,7 @@
         <v>0.94078947368421095</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
@@ -6456,10 +6471,10 @@
         <v>0.96710526315789502</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>
     </row>
-    <row r="37" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -6469,7 +6484,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -6479,7 +6494,7 @@
       <c r="J38" s="10"/>
       <c r="K38" s="10"/>
     </row>
-    <row r="39" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
@@ -6489,7 +6504,7 @@
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -6499,7 +6514,7 @@
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
     </row>
-    <row r="41" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
@@ -6509,7 +6524,7 @@
       <c r="J41" s="10"/>
       <c r="K41" s="10"/>
     </row>
-    <row r="42" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
@@ -6519,7 +6534,7 @@
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
     </row>
-    <row r="43" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
@@ -6529,7 +6544,7 @@
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -6539,7 +6554,7 @@
       <c r="J44" s="10"/>
       <c r="K44" s="10"/>
     </row>
-    <row r="45" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
@@ -6549,7 +6564,7 @@
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
@@ -6559,7 +6574,7 @@
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
     </row>
-    <row r="47" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
@@ -6569,7 +6584,7 @@
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
     </row>
-    <row r="48" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
@@ -6579,7 +6594,7 @@
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
     </row>
-    <row r="49" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
@@ -6589,7 +6604,7 @@
       <c r="J49" s="10"/>
       <c r="K49" s="10"/>
     </row>
-    <row r="50" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
@@ -6599,7 +6614,7 @@
       <c r="J50" s="10"/>
       <c r="K50" s="10"/>
     </row>
-    <row r="51" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
@@ -6609,7 +6624,7 @@
       <c r="J51" s="10"/>
       <c r="K51" s="10"/>
     </row>
-    <row r="52" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
@@ -6619,7 +6634,7 @@
       <c r="J52" s="10"/>
       <c r="K52" s="10"/>
     </row>
-    <row r="53" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
@@ -6645,37 +6660,37 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="68" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-    </row>
-    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -6710,7 +6725,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -6745,7 +6760,7 @@
         <v>0.97368421052631604</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -6775,7 +6790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="1">
         <v>2</v>
@@ -6808,7 +6823,7 @@
         <v>0.96710526315789502</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
@@ -6839,7 +6854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -6874,7 +6889,7 @@
         <v>0.88815789473684204</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
@@ -6904,7 +6919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="1">
         <v>2</v>
@@ -6937,7 +6952,7 @@
         <v>0.94736842105263197</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
@@ -6968,7 +6983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -7003,7 +7018,7 @@
         <v>0.95394736842105299</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
@@ -7033,7 +7048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="1">
         <v>2</v>
@@ -7066,7 +7081,7 @@
         <v>0.96052631578947401</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
@@ -7097,7 +7112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -7132,7 +7147,7 @@
         <v>0.98684210526315796</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
@@ -7162,7 +7177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="1">
         <v>2</v>
@@ -7195,7 +7210,7 @@
         <v>0.97368421052631604</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
@@ -7226,7 +7241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
@@ -7236,7 +7251,7 @@
       <c r="J21" s="16"/>
       <c r="K21" s="16"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>
       <c r="D22" s="16"/>
       <c r="E22" s="16"/>
@@ -7247,7 +7262,7 @@
       <c r="J22" s="16"/>
       <c r="K22" s="16"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D23" s="16"/>
       <c r="E23" s="16"/>
       <c r="F23" s="16"/>
@@ -7257,7 +7272,7 @@
       <c r="J23" s="16"/>
       <c r="K23" s="16"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D24" s="16"/>
       <c r="E24" s="16"/>
       <c r="F24" s="16"/>
@@ -7267,7 +7282,7 @@
       <c r="J24" s="16"/>
       <c r="K24" s="16"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D25" s="16"/>
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
@@ -7277,7 +7292,7 @@
       <c r="J25" s="16"/>
       <c r="K25" s="16"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D26" s="16"/>
       <c r="E26" s="16"/>
       <c r="F26" s="16"/>
@@ -7287,7 +7302,7 @@
       <c r="J26" s="16"/>
       <c r="K26" s="16"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D27" s="16"/>
       <c r="E27" s="16"/>
       <c r="F27" s="16"/>
@@ -7297,7 +7312,7 @@
       <c r="J27" s="16"/>
       <c r="K27" s="16"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
       <c r="F28" s="16"/>
@@ -7307,7 +7322,7 @@
       <c r="J28" s="16"/>
       <c r="K28" s="16"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D29" s="16"/>
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
@@ -7317,7 +7332,7 @@
       <c r="J29" s="16"/>
       <c r="K29" s="16"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D30" s="16"/>
       <c r="E30" s="16"/>
       <c r="F30" s="16"/>
@@ -7327,7 +7342,7 @@
       <c r="J30" s="16"/>
       <c r="K30" s="16"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
       <c r="F31" s="16"/>
@@ -7337,7 +7352,7 @@
       <c r="J31" s="16"/>
       <c r="K31" s="16"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
       <c r="F32" s="16"/>
@@ -7347,7 +7362,7 @@
       <c r="J32" s="16"/>
       <c r="K32" s="16"/>
     </row>
-    <row r="33" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D33" s="16"/>
       <c r="E33" s="16"/>
       <c r="F33" s="16"/>
@@ -7357,7 +7372,7 @@
       <c r="J33" s="16"/>
       <c r="K33" s="16"/>
     </row>
-    <row r="34" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D34" s="16"/>
       <c r="E34" s="16"/>
       <c r="F34" s="16"/>
@@ -7367,7 +7382,7 @@
       <c r="J34" s="16"/>
       <c r="K34" s="16"/>
     </row>
-    <row r="35" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D35" s="16"/>
       <c r="E35" s="16"/>
       <c r="F35" s="16"/>
@@ -7377,7 +7392,7 @@
       <c r="J35" s="16"/>
       <c r="K35" s="16"/>
     </row>
-    <row r="36" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D36" s="16"/>
       <c r="E36" s="16"/>
       <c r="F36" s="16"/>
@@ -7387,7 +7402,7 @@
       <c r="J36" s="16"/>
       <c r="K36" s="16"/>
     </row>
-    <row r="37" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -7397,7 +7412,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -7407,7 +7422,7 @@
       <c r="J38" s="10"/>
       <c r="K38" s="10"/>
     </row>
-    <row r="39" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
@@ -7417,7 +7432,7 @@
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -7427,7 +7442,7 @@
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
     </row>
-    <row r="41" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
@@ -7437,7 +7452,7 @@
       <c r="J41" s="10"/>
       <c r="K41" s="10"/>
     </row>
-    <row r="42" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
@@ -7447,7 +7462,7 @@
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
     </row>
-    <row r="43" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
@@ -7457,7 +7472,7 @@
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -7467,7 +7482,7 @@
       <c r="J44" s="10"/>
       <c r="K44" s="10"/>
     </row>
-    <row r="45" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
@@ -7477,7 +7492,7 @@
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
@@ -7487,7 +7502,7 @@
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
     </row>
-    <row r="47" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
@@ -7497,7 +7512,7 @@
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
     </row>
-    <row r="48" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
@@ -7507,7 +7522,7 @@
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
     </row>
-    <row r="49" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
@@ -7517,7 +7532,7 @@
       <c r="J49" s="10"/>
       <c r="K49" s="10"/>
     </row>
-    <row r="50" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
@@ -7527,7 +7542,7 @@
       <c r="J50" s="10"/>
       <c r="K50" s="10"/>
     </row>
-    <row r="51" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
@@ -7537,7 +7552,7 @@
       <c r="J51" s="10"/>
       <c r="K51" s="10"/>
     </row>
-    <row r="52" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
@@ -7547,7 +7562,7 @@
       <c r="J52" s="10"/>
       <c r="K52" s="10"/>
     </row>
-    <row r="53" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
@@ -7573,37 +7588,37 @@
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="68" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-    </row>
-    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -7638,7 +7653,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -7673,7 +7688,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -7703,7 +7718,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="1">
         <v>2</v>
@@ -7736,7 +7751,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
@@ -7767,7 +7782,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -7802,7 +7817,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
@@ -7832,7 +7847,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="1">
         <v>2</v>
@@ -7865,7 +7880,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
@@ -7896,7 +7911,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -7931,7 +7946,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
@@ -7961,7 +7976,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="1">
         <v>2</v>
@@ -7994,7 +8009,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
@@ -8025,7 +8040,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -8060,7 +8075,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
@@ -8090,7 +8105,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="1">
         <v>2</v>
@@ -8123,7 +8138,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
@@ -8154,8 +8169,8 @@
         <v>146</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>0</v>
       </c>
@@ -8188,7 +8203,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>1</v>
       </c>
@@ -8221,7 +8236,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="1">
         <v>2</v>
@@ -8251,7 +8266,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>3</v>
       </c>
@@ -8284,7 +8299,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="1">
         <v>2</v>
@@ -8314,7 +8329,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>4</v>
       </c>
@@ -8347,7 +8362,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
       <c r="B28" s="6">
         <v>2</v>
@@ -8378,7 +8393,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>5</v>
       </c>
@@ -8411,7 +8426,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
       <c r="B30" s="6">
         <v>2</v>
@@ -8442,7 +8457,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="37" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -8452,7 +8467,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -8462,7 +8477,7 @@
       <c r="J38" s="10"/>
       <c r="K38" s="10"/>
     </row>
-    <row r="39" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
@@ -8472,7 +8487,7 @@
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -8482,7 +8497,7 @@
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
     </row>
-    <row r="41" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
@@ -8492,7 +8507,7 @@
       <c r="J41" s="10"/>
       <c r="K41" s="10"/>
     </row>
-    <row r="42" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
@@ -8502,7 +8517,7 @@
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
     </row>
-    <row r="43" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
@@ -8512,7 +8527,7 @@
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -8522,7 +8537,7 @@
       <c r="J44" s="10"/>
       <c r="K44" s="10"/>
     </row>
-    <row r="45" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
@@ -8532,7 +8547,7 @@
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
@@ -8542,7 +8557,7 @@
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
     </row>
-    <row r="47" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
@@ -8552,7 +8567,7 @@
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
     </row>
-    <row r="48" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
@@ -8562,7 +8577,7 @@
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
     </row>
-    <row r="49" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
@@ -8572,7 +8587,7 @@
       <c r="J49" s="10"/>
       <c r="K49" s="10"/>
     </row>
-    <row r="50" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
@@ -8582,7 +8597,7 @@
       <c r="J50" s="10"/>
       <c r="K50" s="10"/>
     </row>
-    <row r="51" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
@@ -8592,7 +8607,7 @@
       <c r="J51" s="10"/>
       <c r="K51" s="10"/>
     </row>
-    <row r="52" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
@@ -8602,7 +8617,7 @@
       <c r="J52" s="10"/>
       <c r="K52" s="10"/>
     </row>
-    <row r="53" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
@@ -8628,37 +8643,37 @@
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="68" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-    </row>
-    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -8693,7 +8708,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -8728,7 +8743,7 @@
         <v>216.96</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -8758,7 +8773,7 @@
         <v>223.12</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="1">
         <v>2</v>
@@ -8791,7 +8806,7 @@
         <v>182.32</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
@@ -8822,7 +8837,7 @@
         <v>217.33</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -8857,7 +8872,7 @@
         <v>107.23</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
@@ -8887,7 +8902,7 @@
         <v>216.27</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="1">
         <v>2</v>
@@ -8920,7 +8935,7 @@
         <v>131.02000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
@@ -8951,7 +8966,7 @@
         <v>216.25</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -8986,7 +9001,7 @@
         <v>70.239999999999995</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
@@ -9016,7 +9031,7 @@
         <v>47.02</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="1">
         <v>2</v>
@@ -9049,7 +9064,7 @@
         <v>69.95</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
@@ -9080,7 +9095,7 @@
         <v>48.82</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -9115,7 +9130,7 @@
         <v>216.29</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
@@ -9145,7 +9160,7 @@
         <v>176.81</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="1">
         <v>2</v>
@@ -9178,7 +9193,7 @@
         <v>217.08</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
@@ -9209,8 +9224,8 @@
         <v>141.24</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>0</v>
       </c>
@@ -9243,7 +9258,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>1</v>
       </c>
@@ -9276,7 +9291,7 @@
         <v>216.96</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="1">
         <v>2</v>
@@ -9306,7 +9321,7 @@
         <v>217.33</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>3</v>
       </c>
@@ -9339,7 +9354,7 @@
         <v>107.23</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="1">
         <v>2</v>
@@ -9369,7 +9384,7 @@
         <v>131.02000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>4</v>
       </c>
@@ -9402,7 +9417,7 @@
         <v>47.02</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
       <c r="B28" s="6">
         <v>2</v>
@@ -9433,7 +9448,7 @@
         <v>48.82</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>5</v>
       </c>
@@ -9466,7 +9481,7 @@
         <v>176.81</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
       <c r="B30" s="6">
         <v>2</v>
@@ -9497,7 +9512,7 @@
         <v>141.24</v>
       </c>
     </row>
-    <row r="37" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -9507,7 +9522,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -9517,7 +9532,7 @@
       <c r="J38" s="10"/>
       <c r="K38" s="10"/>
     </row>
-    <row r="39" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
@@ -9527,7 +9542,7 @@
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -9537,7 +9552,7 @@
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
     </row>
-    <row r="41" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
@@ -9547,7 +9562,7 @@
       <c r="J41" s="10"/>
       <c r="K41" s="10"/>
     </row>
-    <row r="42" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
@@ -9557,7 +9572,7 @@
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
     </row>
-    <row r="43" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
@@ -9567,7 +9582,7 @@
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -9577,7 +9592,7 @@
       <c r="J44" s="10"/>
       <c r="K44" s="10"/>
     </row>
-    <row r="45" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
@@ -9587,7 +9602,7 @@
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
@@ -9597,7 +9612,7 @@
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
     </row>
-    <row r="47" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
@@ -9607,7 +9622,7 @@
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
     </row>
-    <row r="48" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
@@ -9617,7 +9632,7 @@
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
     </row>
-    <row r="49" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
@@ -9627,7 +9642,7 @@
       <c r="J49" s="10"/>
       <c r="K49" s="10"/>
     </row>
-    <row r="50" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
@@ -9637,7 +9652,7 @@
       <c r="J50" s="10"/>
       <c r="K50" s="10"/>
     </row>
-    <row r="51" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
@@ -9647,7 +9662,7 @@
       <c r="J51" s="10"/>
       <c r="K51" s="10"/>
     </row>
-    <row r="52" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
@@ -9657,7 +9672,7 @@
       <c r="J52" s="10"/>
       <c r="K52" s="10"/>
     </row>
-    <row r="53" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
@@ -9683,37 +9698,37 @@
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="68" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-    </row>
-    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -9748,7 +9763,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -9783,7 +9798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -9813,7 +9828,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="1">
         <v>2</v>
@@ -9846,7 +9861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
@@ -9877,7 +9892,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -9912,7 +9927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
@@ -9942,7 +9957,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="1">
         <v>2</v>
@@ -9975,7 +9990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
@@ -10006,7 +10021,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -10041,7 +10056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
@@ -10071,7 +10086,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="1">
         <v>2</v>
@@ -10104,7 +10119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
@@ -10135,7 +10150,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -10170,7 +10185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
@@ -10200,7 +10215,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="1">
         <v>2</v>
@@ -10233,7 +10248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
@@ -10264,8 +10279,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>0</v>
       </c>
@@ -10298,7 +10313,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>1</v>
       </c>
@@ -10306,62 +10321,62 @@
         <v>1</v>
       </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="92">
-        <v>2</v>
-      </c>
-      <c r="E23" s="92">
-        <v>1</v>
-      </c>
-      <c r="F23" s="92">
+      <c r="D23" s="84">
+        <v>2</v>
+      </c>
+      <c r="E23" s="84">
+        <v>1</v>
+      </c>
+      <c r="F23" s="84">
         <v>4</v>
       </c>
-      <c r="G23" s="92">
-        <v>1</v>
-      </c>
-      <c r="H23" s="92">
+      <c r="G23" s="84">
+        <v>1</v>
+      </c>
+      <c r="H23" s="84">
         <v>8</v>
       </c>
-      <c r="I23" s="92">
-        <v>1</v>
-      </c>
-      <c r="J23" s="92">
-        <v>1</v>
-      </c>
-      <c r="K23" s="92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I23" s="84">
+        <v>1</v>
+      </c>
+      <c r="J23" s="84">
+        <v>1</v>
+      </c>
+      <c r="K23" s="84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="1">
         <v>2</v>
       </c>
-      <c r="D24" s="92">
-        <v>2</v>
-      </c>
-      <c r="E24" s="92">
-        <v>1</v>
-      </c>
-      <c r="F24" s="92">
-        <v>1</v>
-      </c>
-      <c r="G24" s="92">
+      <c r="D24" s="84">
+        <v>2</v>
+      </c>
+      <c r="E24" s="84">
+        <v>1</v>
+      </c>
+      <c r="F24" s="84">
+        <v>1</v>
+      </c>
+      <c r="G24" s="84">
         <v>3</v>
       </c>
-      <c r="H24" s="92">
+      <c r="H24" s="84">
         <v>6</v>
       </c>
-      <c r="I24" s="92">
-        <v>2</v>
-      </c>
-      <c r="J24" s="92">
+      <c r="I24" s="84">
+        <v>2</v>
+      </c>
+      <c r="J24" s="84">
         <v>4</v>
       </c>
-      <c r="K24" s="92">
+      <c r="K24" s="84">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>3</v>
       </c>
@@ -10369,62 +10384,62 @@
         <v>1</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="92">
-        <v>1</v>
-      </c>
-      <c r="E25" s="92">
-        <v>1</v>
-      </c>
-      <c r="F25" s="92">
-        <v>2</v>
-      </c>
-      <c r="G25" s="92">
-        <v>1</v>
-      </c>
-      <c r="H25" s="92">
+      <c r="D25" s="84">
+        <v>1</v>
+      </c>
+      <c r="E25" s="84">
+        <v>1</v>
+      </c>
+      <c r="F25" s="84">
+        <v>2</v>
+      </c>
+      <c r="G25" s="84">
+        <v>1</v>
+      </c>
+      <c r="H25" s="84">
         <v>10</v>
       </c>
-      <c r="I25" s="92">
-        <v>2</v>
-      </c>
-      <c r="J25" s="92">
-        <v>1</v>
-      </c>
-      <c r="K25" s="92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I25" s="84">
+        <v>2</v>
+      </c>
+      <c r="J25" s="84">
+        <v>1</v>
+      </c>
+      <c r="K25" s="84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="1">
         <v>2</v>
       </c>
-      <c r="D26" s="92">
-        <v>2</v>
-      </c>
-      <c r="E26" s="92">
+      <c r="D26" s="84">
+        <v>2</v>
+      </c>
+      <c r="E26" s="84">
         <v>5</v>
       </c>
-      <c r="F26" s="92">
-        <v>2</v>
-      </c>
-      <c r="G26" s="92">
+      <c r="F26" s="84">
+        <v>2</v>
+      </c>
+      <c r="G26" s="84">
         <v>10</v>
       </c>
-      <c r="H26" s="92">
+      <c r="H26" s="84">
         <v>10</v>
       </c>
-      <c r="I26" s="92">
-        <v>2</v>
-      </c>
-      <c r="J26" s="92">
-        <v>1</v>
-      </c>
-      <c r="K26" s="92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I26" s="84">
+        <v>2</v>
+      </c>
+      <c r="J26" s="84">
+        <v>1</v>
+      </c>
+      <c r="K26" s="84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>4</v>
       </c>
@@ -10432,63 +10447,63 @@
         <v>1</v>
       </c>
       <c r="C27" s="21"/>
-      <c r="D27" s="92">
-        <v>1</v>
-      </c>
-      <c r="E27" s="92">
+      <c r="D27" s="84">
+        <v>1</v>
+      </c>
+      <c r="E27" s="84">
         <v>7</v>
       </c>
-      <c r="F27" s="92">
-        <v>2</v>
-      </c>
-      <c r="G27" s="92">
+      <c r="F27" s="84">
+        <v>2</v>
+      </c>
+      <c r="G27" s="84">
         <v>3</v>
       </c>
-      <c r="H27" s="92">
+      <c r="H27" s="84">
         <v>7</v>
       </c>
-      <c r="I27" s="92">
+      <c r="I27" s="84">
         <v>3</v>
       </c>
-      <c r="J27" s="92">
-        <v>1</v>
-      </c>
-      <c r="K27" s="92">
+      <c r="J27" s="84">
+        <v>1</v>
+      </c>
+      <c r="K27" s="84">
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
       <c r="B28" s="6">
         <v>2</v>
       </c>
       <c r="C28" s="23"/>
-      <c r="D28" s="92">
-        <v>1</v>
-      </c>
-      <c r="E28" s="92">
+      <c r="D28" s="84">
+        <v>1</v>
+      </c>
+      <c r="E28" s="84">
         <v>3</v>
       </c>
-      <c r="F28" s="92">
-        <v>2</v>
-      </c>
-      <c r="G28" s="92">
+      <c r="F28" s="84">
+        <v>2</v>
+      </c>
+      <c r="G28" s="84">
         <v>5</v>
       </c>
-      <c r="H28" s="92">
+      <c r="H28" s="84">
         <v>8</v>
       </c>
-      <c r="I28" s="92">
+      <c r="I28" s="84">
         <v>7</v>
       </c>
-      <c r="J28" s="92">
-        <v>1</v>
-      </c>
-      <c r="K28" s="92">
+      <c r="J28" s="84">
+        <v>1</v>
+      </c>
+      <c r="K28" s="84">
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>5</v>
       </c>
@@ -10496,63 +10511,63 @@
         <v>1</v>
       </c>
       <c r="C29" s="21"/>
-      <c r="D29" s="92">
-        <v>1</v>
-      </c>
-      <c r="E29" s="92">
-        <v>1</v>
-      </c>
-      <c r="F29" s="92">
-        <v>1</v>
-      </c>
-      <c r="G29" s="92">
-        <v>1</v>
-      </c>
-      <c r="H29" s="92">
+      <c r="D29" s="84">
+        <v>1</v>
+      </c>
+      <c r="E29" s="84">
+        <v>1</v>
+      </c>
+      <c r="F29" s="84">
+        <v>1</v>
+      </c>
+      <c r="G29" s="84">
+        <v>1</v>
+      </c>
+      <c r="H29" s="84">
         <v>7</v>
       </c>
-      <c r="I29" s="92">
-        <v>1</v>
-      </c>
-      <c r="J29" s="92">
-        <v>2</v>
-      </c>
-      <c r="K29" s="92">
+      <c r="I29" s="84">
+        <v>1</v>
+      </c>
+      <c r="J29" s="84">
+        <v>2</v>
+      </c>
+      <c r="K29" s="84">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
       <c r="B30" s="6">
         <v>2</v>
       </c>
       <c r="C30" s="23"/>
-      <c r="D30" s="92">
-        <v>1</v>
-      </c>
-      <c r="E30" s="92">
-        <v>1</v>
-      </c>
-      <c r="F30" s="92">
-        <v>1</v>
-      </c>
-      <c r="G30" s="92">
+      <c r="D30" s="84">
+        <v>1</v>
+      </c>
+      <c r="E30" s="84">
+        <v>1</v>
+      </c>
+      <c r="F30" s="84">
+        <v>1</v>
+      </c>
+      <c r="G30" s="84">
         <v>9</v>
       </c>
-      <c r="H30" s="92">
+      <c r="H30" s="84">
         <v>7</v>
       </c>
-      <c r="I30" s="92">
-        <v>1</v>
-      </c>
-      <c r="J30" s="92">
-        <v>2</v>
-      </c>
-      <c r="K30" s="92">
+      <c r="I30" s="84">
+        <v>1</v>
+      </c>
+      <c r="J30" s="84">
+        <v>2</v>
+      </c>
+      <c r="K30" s="84">
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -10562,7 +10577,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -10572,7 +10587,7 @@
       <c r="J38" s="10"/>
       <c r="K38" s="10"/>
     </row>
-    <row r="39" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
@@ -10582,7 +10597,7 @@
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -10592,7 +10607,7 @@
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
     </row>
-    <row r="41" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
@@ -10602,7 +10617,7 @@
       <c r="J41" s="10"/>
       <c r="K41" s="10"/>
     </row>
-    <row r="42" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
@@ -10612,7 +10627,7 @@
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
     </row>
-    <row r="43" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
@@ -10622,7 +10637,7 @@
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -10632,7 +10647,7 @@
       <c r="J44" s="10"/>
       <c r="K44" s="10"/>
     </row>
-    <row r="45" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
@@ -10642,7 +10657,7 @@
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
@@ -10652,7 +10667,7 @@
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
     </row>
-    <row r="47" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
@@ -10662,7 +10677,7 @@
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
     </row>
-    <row r="48" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
@@ -10672,7 +10687,7 @@
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
     </row>
-    <row r="49" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
@@ -10682,7 +10697,7 @@
       <c r="J49" s="10"/>
       <c r="K49" s="10"/>
     </row>
-    <row r="50" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
@@ -10692,7 +10707,7 @@
       <c r="J50" s="10"/>
       <c r="K50" s="10"/>
     </row>
-    <row r="51" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
@@ -10702,7 +10717,7 @@
       <c r="J51" s="10"/>
       <c r="K51" s="10"/>
     </row>
-    <row r="52" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
@@ -10712,7 +10727,7 @@
       <c r="J52" s="10"/>
       <c r="K52" s="10"/>
     </row>
-    <row r="53" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
@@ -10738,37 +10753,37 @@
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="68" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-    </row>
-    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -10803,7 +10818,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -10838,7 +10853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -10868,7 +10883,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="1">
         <v>2</v>
@@ -10901,7 +10916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
@@ -10932,7 +10947,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -10967,7 +10982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
@@ -10997,7 +11012,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="1">
         <v>2</v>
@@ -11030,7 +11045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
@@ -11061,7 +11076,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -11096,7 +11111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
@@ -11126,7 +11141,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="1">
         <v>2</v>
@@ -11159,7 +11174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
@@ -11190,7 +11205,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -11225,7 +11240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
@@ -11255,7 +11270,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="1">
         <v>2</v>
@@ -11288,7 +11303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
@@ -11319,8 +11334,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>0</v>
       </c>
@@ -11353,7 +11368,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>1</v>
       </c>
@@ -11361,62 +11376,62 @@
         <v>1</v>
       </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="83">
-        <v>2</v>
-      </c>
-      <c r="E23" s="84">
-        <v>1</v>
-      </c>
-      <c r="F23" s="84">
+      <c r="D23" s="75">
+        <v>2</v>
+      </c>
+      <c r="E23" s="76">
+        <v>1</v>
+      </c>
+      <c r="F23" s="76">
         <v>4</v>
       </c>
-      <c r="G23" s="84">
-        <v>1</v>
-      </c>
-      <c r="H23" s="84">
+      <c r="G23" s="76">
+        <v>1</v>
+      </c>
+      <c r="H23" s="76">
         <v>8</v>
       </c>
-      <c r="I23" s="84">
-        <v>1</v>
-      </c>
-      <c r="J23" s="84">
-        <v>1</v>
-      </c>
-      <c r="K23" s="85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I23" s="76">
+        <v>1</v>
+      </c>
+      <c r="J23" s="76">
+        <v>1</v>
+      </c>
+      <c r="K23" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="1">
         <v>2</v>
       </c>
-      <c r="D24" s="86">
-        <v>2</v>
-      </c>
-      <c r="E24" s="87">
-        <v>1</v>
-      </c>
-      <c r="F24" s="87">
-        <v>1</v>
-      </c>
-      <c r="G24" s="87">
+      <c r="D24" s="78">
+        <v>2</v>
+      </c>
+      <c r="E24" s="79">
+        <v>1</v>
+      </c>
+      <c r="F24" s="79">
+        <v>1</v>
+      </c>
+      <c r="G24" s="79">
         <v>3</v>
       </c>
-      <c r="H24" s="87">
+      <c r="H24" s="79">
         <v>6</v>
       </c>
-      <c r="I24" s="87">
-        <v>2</v>
-      </c>
-      <c r="J24" s="87">
+      <c r="I24" s="79">
+        <v>2</v>
+      </c>
+      <c r="J24" s="79">
         <v>4</v>
       </c>
-      <c r="K24" s="88">
+      <c r="K24" s="80">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>3</v>
       </c>
@@ -11424,62 +11439,62 @@
         <v>1</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="86">
-        <v>1</v>
-      </c>
-      <c r="E25" s="87">
-        <v>1</v>
-      </c>
-      <c r="F25" s="87">
-        <v>2</v>
-      </c>
-      <c r="G25" s="87">
-        <v>1</v>
-      </c>
-      <c r="H25" s="87">
+      <c r="D25" s="78">
+        <v>1</v>
+      </c>
+      <c r="E25" s="79">
+        <v>1</v>
+      </c>
+      <c r="F25" s="79">
+        <v>2</v>
+      </c>
+      <c r="G25" s="79">
+        <v>1</v>
+      </c>
+      <c r="H25" s="79">
         <v>10</v>
       </c>
-      <c r="I25" s="87">
-        <v>2</v>
-      </c>
-      <c r="J25" s="87">
-        <v>1</v>
-      </c>
-      <c r="K25" s="88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I25" s="79">
+        <v>2</v>
+      </c>
+      <c r="J25" s="79">
+        <v>1</v>
+      </c>
+      <c r="K25" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="1">
         <v>2</v>
       </c>
-      <c r="D26" s="86">
-        <v>2</v>
-      </c>
-      <c r="E26" s="87">
+      <c r="D26" s="78">
+        <v>2</v>
+      </c>
+      <c r="E26" s="79">
         <v>5</v>
       </c>
-      <c r="F26" s="87">
-        <v>2</v>
-      </c>
-      <c r="G26" s="87">
+      <c r="F26" s="79">
+        <v>2</v>
+      </c>
+      <c r="G26" s="79">
         <v>10</v>
       </c>
-      <c r="H26" s="87">
+      <c r="H26" s="79">
         <v>10</v>
       </c>
-      <c r="I26" s="87">
-        <v>2</v>
-      </c>
-      <c r="J26" s="87">
-        <v>1</v>
-      </c>
-      <c r="K26" s="88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I26" s="79">
+        <v>2</v>
+      </c>
+      <c r="J26" s="79">
+        <v>1</v>
+      </c>
+      <c r="K26" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>4</v>
       </c>
@@ -11487,63 +11502,63 @@
         <v>1</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="86">
-        <v>1</v>
-      </c>
-      <c r="E27" s="87">
+      <c r="D27" s="78">
+        <v>1</v>
+      </c>
+      <c r="E27" s="79">
         <v>7</v>
       </c>
-      <c r="F27" s="87">
-        <v>2</v>
-      </c>
-      <c r="G27" s="87">
+      <c r="F27" s="79">
+        <v>2</v>
+      </c>
+      <c r="G27" s="79">
         <v>3</v>
       </c>
-      <c r="H27" s="87">
+      <c r="H27" s="79">
         <v>7</v>
       </c>
-      <c r="I27" s="87">
+      <c r="I27" s="79">
         <v>3</v>
       </c>
-      <c r="J27" s="87">
-        <v>1</v>
-      </c>
-      <c r="K27" s="88">
+      <c r="J27" s="79">
+        <v>1</v>
+      </c>
+      <c r="K27" s="80">
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
       <c r="B28" s="6">
         <v>2</v>
       </c>
       <c r="C28" s="6"/>
-      <c r="D28" s="86">
-        <v>1</v>
-      </c>
-      <c r="E28" s="87">
+      <c r="D28" s="78">
+        <v>1</v>
+      </c>
+      <c r="E28" s="79">
         <v>3</v>
       </c>
-      <c r="F28" s="87">
-        <v>2</v>
-      </c>
-      <c r="G28" s="87">
+      <c r="F28" s="79">
+        <v>2</v>
+      </c>
+      <c r="G28" s="79">
         <v>5</v>
       </c>
-      <c r="H28" s="87">
+      <c r="H28" s="79">
         <v>8</v>
       </c>
-      <c r="I28" s="87">
+      <c r="I28" s="79">
         <v>7</v>
       </c>
-      <c r="J28" s="87">
-        <v>1</v>
-      </c>
-      <c r="K28" s="88">
+      <c r="J28" s="79">
+        <v>1</v>
+      </c>
+      <c r="K28" s="80">
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>5</v>
       </c>
@@ -11551,63 +11566,63 @@
         <v>1</v>
       </c>
       <c r="C29" s="3"/>
-      <c r="D29" s="86">
-        <v>1</v>
-      </c>
-      <c r="E29" s="87">
-        <v>1</v>
-      </c>
-      <c r="F29" s="87">
-        <v>1</v>
-      </c>
-      <c r="G29" s="87">
-        <v>1</v>
-      </c>
-      <c r="H29" s="87">
+      <c r="D29" s="78">
+        <v>1</v>
+      </c>
+      <c r="E29" s="79">
+        <v>1</v>
+      </c>
+      <c r="F29" s="79">
+        <v>1</v>
+      </c>
+      <c r="G29" s="79">
+        <v>1</v>
+      </c>
+      <c r="H29" s="79">
         <v>7</v>
       </c>
-      <c r="I29" s="87">
-        <v>1</v>
-      </c>
-      <c r="J29" s="87">
-        <v>2</v>
-      </c>
-      <c r="K29" s="88">
+      <c r="I29" s="79">
+        <v>1</v>
+      </c>
+      <c r="J29" s="79">
+        <v>2</v>
+      </c>
+      <c r="K29" s="80">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
       <c r="B30" s="6">
         <v>2</v>
       </c>
       <c r="C30" s="6"/>
-      <c r="D30" s="89">
-        <v>1</v>
-      </c>
-      <c r="E30" s="90">
-        <v>1</v>
-      </c>
-      <c r="F30" s="90">
-        <v>1</v>
-      </c>
-      <c r="G30" s="90">
+      <c r="D30" s="81">
+        <v>1</v>
+      </c>
+      <c r="E30" s="82">
+        <v>1</v>
+      </c>
+      <c r="F30" s="82">
+        <v>1</v>
+      </c>
+      <c r="G30" s="82">
         <v>9</v>
       </c>
-      <c r="H30" s="90">
+      <c r="H30" s="82">
         <v>7</v>
       </c>
-      <c r="I30" s="90">
-        <v>1</v>
-      </c>
-      <c r="J30" s="90">
-        <v>2</v>
-      </c>
-      <c r="K30" s="91">
+      <c r="I30" s="82">
+        <v>1</v>
+      </c>
+      <c r="J30" s="82">
+        <v>2</v>
+      </c>
+      <c r="K30" s="83">
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -11617,7 +11632,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -11627,7 +11642,7 @@
       <c r="J38" s="10"/>
       <c r="K38" s="10"/>
     </row>
-    <row r="39" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
@@ -11637,7 +11652,7 @@
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -11647,7 +11662,7 @@
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
     </row>
-    <row r="41" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
@@ -11657,7 +11672,7 @@
       <c r="J41" s="10"/>
       <c r="K41" s="10"/>
     </row>
-    <row r="42" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
@@ -11667,7 +11682,7 @@
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
     </row>
-    <row r="43" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
@@ -11677,7 +11692,7 @@
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -11687,7 +11702,7 @@
       <c r="J44" s="10"/>
       <c r="K44" s="10"/>
     </row>
-    <row r="45" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
@@ -11697,7 +11712,7 @@
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
@@ -11707,7 +11722,7 @@
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
     </row>
-    <row r="47" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
@@ -11717,7 +11732,7 @@
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
     </row>
-    <row r="48" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
@@ -11727,7 +11742,7 @@
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
     </row>
-    <row r="49" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
@@ -11737,7 +11752,7 @@
       <c r="J49" s="10"/>
       <c r="K49" s="10"/>
     </row>
-    <row r="50" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
@@ -11747,7 +11762,7 @@
       <c r="J50" s="10"/>
       <c r="K50" s="10"/>
     </row>
-    <row r="51" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
@@ -11757,7 +11772,7 @@
       <c r="J51" s="10"/>
       <c r="K51" s="10"/>
     </row>
-    <row r="52" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
@@ -11767,7 +11782,7 @@
       <c r="J52" s="10"/>
       <c r="K52" s="10"/>
     </row>
-    <row r="53" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
@@ -11793,75 +11808,75 @@
       <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" customWidth="1"/>
-    <col min="5" max="6" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" customWidth="1"/>
+    <col min="5" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="68" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-    </row>
-    <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+    </row>
+    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D3" s="17" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="69" t="s">
+      <c r="F3" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
       <c r="I3" s="18" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="70" t="s">
+      <c r="K3" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="71"/>
-      <c r="M3" s="70" t="s">
+      <c r="L3" s="88"/>
+      <c r="M3" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="71"/>
-      <c r="O3" s="70" t="s">
+      <c r="N3" s="88"/>
+      <c r="O3" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="72"/>
-    </row>
-    <row r="4" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P3" s="89"/>
+    </row>
+    <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -11911,7 +11926,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -11961,7 +11976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="C6" s="22" t="s">
         <v>12</v>
@@ -12006,7 +12021,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="1">
         <v>2</v>
@@ -12054,7 +12069,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="23" t="s">
@@ -12100,7 +12115,7 @@
         <v>1.5625E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -12150,7 +12165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="C10" s="22" t="s">
         <v>12</v>
@@ -12195,7 +12210,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="1">
         <v>2</v>
@@ -12243,7 +12258,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="23" t="s">
@@ -12289,7 +12304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -12339,7 +12354,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="C14" s="22" t="s">
         <v>12</v>
@@ -12384,7 +12399,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="1">
         <v>2</v>
@@ -12432,7 +12447,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="23" t="s">
@@ -12478,7 +12493,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -12528,7 +12543,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18" s="22" t="s">
         <v>12</v>
@@ -12573,7 +12588,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="1">
         <v>2</v>
@@ -12621,7 +12636,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="23" t="s">
@@ -12667,10 +12682,10 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>
     </row>
-    <row r="37" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -12684,7 +12699,7 @@
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
     </row>
-    <row r="38" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -12698,7 +12713,7 @@
       <c r="N38" s="10"/>
       <c r="O38" s="10"/>
     </row>
-    <row r="39" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
@@ -12712,7 +12727,7 @@
       <c r="N39" s="10"/>
       <c r="O39" s="10"/>
     </row>
-    <row r="40" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -12726,7 +12741,7 @@
       <c r="N40" s="10"/>
       <c r="O40" s="10"/>
     </row>
-    <row r="41" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
@@ -12740,7 +12755,7 @@
       <c r="N41" s="10"/>
       <c r="O41" s="10"/>
     </row>
-    <row r="42" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
@@ -12754,7 +12769,7 @@
       <c r="N42" s="10"/>
       <c r="O42" s="10"/>
     </row>
-    <row r="43" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
@@ -12768,7 +12783,7 @@
       <c r="N43" s="10"/>
       <c r="O43" s="10"/>
     </row>
-    <row r="44" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -12782,7 +12797,7 @@
       <c r="N44" s="10"/>
       <c r="O44" s="10"/>
     </row>
-    <row r="45" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
@@ -12796,7 +12811,7 @@
       <c r="N45" s="10"/>
       <c r="O45" s="10"/>
     </row>
-    <row r="46" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
@@ -12810,7 +12825,7 @@
       <c r="N46" s="10"/>
       <c r="O46" s="10"/>
     </row>
-    <row r="47" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
@@ -12824,7 +12839,7 @@
       <c r="N47" s="10"/>
       <c r="O47" s="10"/>
     </row>
-    <row r="48" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
@@ -12838,7 +12853,7 @@
       <c r="N48" s="10"/>
       <c r="O48" s="10"/>
     </row>
-    <row r="49" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
@@ -12852,7 +12867,7 @@
       <c r="N49" s="10"/>
       <c r="O49" s="10"/>
     </row>
-    <row r="50" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
@@ -12866,7 +12881,7 @@
       <c r="N50" s="10"/>
       <c r="O50" s="10"/>
     </row>
-    <row r="51" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
@@ -12880,7 +12895,7 @@
       <c r="N51" s="10"/>
       <c r="O51" s="10"/>
     </row>
-    <row r="52" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
@@ -12894,7 +12909,7 @@
       <c r="N52" s="10"/>
       <c r="O52" s="10"/>
     </row>
-    <row r="53" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>

--- a/results_analysis/spark_motorFailure_02_hold_01_best.xlsx
+++ b/results_analysis/spark_motorFailure_02_hold_01_best.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\mltool_matlab_fp\results_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9BDD82C-78C5-414C-9B56-2F4D26C0612E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8AF844-F876-4C9D-9840-A7D28D339200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="734" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="734" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="acc_mean" sheetId="1" r:id="rId1"/>
@@ -1083,7 +1083,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1879,7 +1879,7 @@
         <v>0.89736842105263204</v>
       </c>
       <c r="E28" s="87">
-        <v>0.999605263157895</v>
+        <v>0.999</v>
       </c>
       <c r="F28" s="73">
         <v>0.89710526315789496</v>
